--- a/drug_master.xlsx
+++ b/drug_master.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="448">
   <si>
     <t>ID</t>
   </si>
@@ -54,7 +54,7 @@
     <t>DZP換算力価</t>
   </si>
   <si>
-    <t>10-抗精神病薬(FGA)</t>
+    <t>10-抗精神病薬（FGA）</t>
   </si>
   <si>
     <t>レセルピン</t>
@@ -225,7 +225,7 @@
     <t>ロドピン、ロシゾピロン</t>
   </si>
   <si>
-    <t>11-抗精神病薬(SGA)</t>
+    <t>11-抗精神病薬（SGA）</t>
   </si>
   <si>
     <t>パリペリドン</t>
@@ -378,7 +378,7 @@
     <t>mg/2週間量</t>
   </si>
   <si>
-    <t>15-抗精神病薬（注射）</t>
+    <t>15-抗精神病薬（即効性注射剤・FGA）</t>
   </si>
   <si>
     <t>クロルプロマジン注射剤</t>
@@ -387,6 +387,9 @@
     <t>コントミン筋注</t>
   </si>
   <si>
+    <t>15-抗精神病薬（即効性注射剤・SGA）</t>
+  </si>
+  <si>
     <t>オランザピン注射剤</t>
   </si>
   <si>
@@ -459,7 +462,7 @@
     <t>ラボナ</t>
   </si>
   <si>
-    <t>21-抗不安・睡眠薬（その他、古い）</t>
+    <t>21-抗不安・睡眠薬（その他）</t>
   </si>
   <si>
     <t>パッシフローラエキス</t>
@@ -867,7 +870,7 @@
     <t>レスリン、デジレル</t>
   </si>
   <si>
-    <t>33-抗うつ薬(SSRI)</t>
+    <t>33-抗うつ薬（SSRI）</t>
   </si>
   <si>
     <t>セルトラリン</t>
@@ -900,7 +903,7 @@
     <t>レクサプロ</t>
   </si>
   <si>
-    <t>34-抗うつ薬(SNRI)</t>
+    <t>34-抗うつ薬（SNRI）</t>
   </si>
   <si>
     <t>ベンラファキシン</t>
@@ -921,7 +924,7 @@
     <t>トレドミン</t>
   </si>
   <si>
-    <t>35-抗うつ薬(NaSSA)</t>
+    <t>35-抗うつ薬（NaSSA）</t>
   </si>
   <si>
     <t>ミルタザピン</t>
@@ -930,7 +933,7 @@
     <t>リフレックス、レメロン</t>
   </si>
   <si>
-    <t>36-抗うつ薬(other)</t>
+    <t>36-抗うつ薬</t>
   </si>
   <si>
     <t>ボルチオキセチン</t>
@@ -1436,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1455,9 +1458,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1465,10 +1465,10 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1749,31 +1749,31 @@
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9" t="str">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="str">
         <f t="shared" ref="G2:G201" si="1">CONCAT(IF(D2&lt;&gt;"",CONCAT(D2,IF(E2="y","",CONCAT("（",CONCAT(C2,"）")))),C2),F2)</f>
         <v>アポプロン（レセルピン）mg</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="H2" s="8" t="str">
         <f t="shared" ref="H2:H201" si="2">CONCAT(LEFT(B2,2),G2)</f>
         <v>10アポプロン（レセルピン）mg</v>
       </c>
-      <c r="I2" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="I2" s="10">
+        <v>666.66</v>
+      </c>
+      <c r="J2" s="10">
         <v>0.0</v>
       </c>
       <c r="K2" s="11">
@@ -1790,31 +1790,31 @@
       <c r="A3" s="7">
         <v>2.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="str">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="str">
         <f t="shared" si="1"/>
         <v>インプロメン（ブロムペリドール）mg</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10インプロメン（ブロムペリドール）mg</v>
       </c>
       <c r="I3" s="11">
         <v>50.0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>0.0</v>
       </c>
       <c r="K3" s="11">
@@ -1831,31 +1831,31 @@
       <c r="A4" s="7">
         <v>3.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9" t="str">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エミレース（ネモナプリド）mg</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10エミレース（ネモナプリド）mg</v>
       </c>
       <c r="I4" s="11">
         <v>22.2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>0.0</v>
       </c>
       <c r="K4" s="11">
@@ -1872,31 +1872,31 @@
       <c r="A5" s="7">
         <v>4.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9" t="str">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>オーラップ（ピモジド）mg</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10オーラップ（ピモジド）mg</v>
       </c>
       <c r="I5" s="11">
         <v>25.0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>0.0</v>
       </c>
       <c r="K5" s="11">
@@ -1913,31 +1913,31 @@
       <c r="A6" s="7">
         <v>5.0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="9" t="str">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>グラマリール（チアプリド）mg</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10グラマリール（チアプリド）mg</v>
       </c>
       <c r="I6" s="11">
         <v>1.0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>0.0</v>
       </c>
       <c r="K6" s="11">
@@ -1954,31 +1954,31 @@
       <c r="A7" s="7">
         <v>6.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9" t="str">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>クレミン（モサプラミン）mg</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="H7" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10クレミン（モサプラミン）mg</v>
       </c>
       <c r="I7" s="11">
         <v>3.0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>0.0</v>
       </c>
       <c r="K7" s="11">
@@ -1995,31 +1995,31 @@
       <c r="A8" s="7">
         <v>7.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="9" t="str">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>クロフェクトン（クロカプラミン）mg</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10クロフェクトン（クロカプラミン）mg</v>
       </c>
       <c r="I8" s="11">
         <v>2.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>0.0</v>
       </c>
       <c r="K8" s="11">
@@ -2036,31 +2036,31 @@
       <c r="A9" s="7">
         <v>8.0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="9" t="str">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コントミン、ウインタミン（クロルプロマジン）mg</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10コントミン、ウインタミン（クロルプロマジン）mg</v>
       </c>
       <c r="I9" s="11">
         <v>1.0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>0.0</v>
       </c>
       <c r="K9" s="11">
@@ -2077,31 +2077,31 @@
       <c r="A10" s="7">
         <v>9.0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="9" t="str">
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>スピペロン（スピロピタン）mg</v>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="H10" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10スピペロン（スピロピタン）mg</v>
       </c>
       <c r="I10" s="11">
         <v>100.0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>0.0</v>
       </c>
       <c r="K10" s="11">
@@ -2118,31 +2118,31 @@
       <c r="A11" s="7">
         <v>10.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="9" t="str">
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セレネース、リントン、ハロステン（ハロペリドール）mg</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10セレネース、リントン、ハロステン（ハロペリドール）mg</v>
       </c>
       <c r="I11" s="11">
         <v>50.0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>0.0</v>
       </c>
       <c r="K11" s="11">
@@ -2159,31 +2159,31 @@
       <c r="A12" s="7">
         <v>11.0</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="9" t="str">
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デフェクトン（カルピプラン）mg</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10デフェクトン（カルピプラン）mg</v>
       </c>
       <c r="I12" s="11">
         <v>1.0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>0.0</v>
       </c>
       <c r="K12" s="11">
@@ -2200,31 +2200,31 @@
       <c r="A13" s="7">
         <v>12.0</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="9" t="str">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デリトン（クロチアピン）mg</v>
       </c>
-      <c r="H13" s="9" t="str">
+      <c r="H13" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10デリトン（クロチアピン）mg</v>
       </c>
       <c r="I13" s="11">
         <v>2.5</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>0.0</v>
       </c>
       <c r="K13" s="11">
@@ -2241,31 +2241,31 @@
       <c r="A14" s="7">
         <v>13.0</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="str">
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドグマチール、アビリット、ミラドール（スルピリド）mg</v>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="H14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ドグマチール、アビリット、ミラドール（スルピリド）mg</v>
       </c>
       <c r="I14" s="11">
         <v>0.5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>0.0</v>
       </c>
       <c r="K14" s="11">
@@ -2282,29 +2282,29 @@
       <c r="A15" s="7">
         <v>14.0</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="9" t="str">
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トリフロペラジンmg</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="H15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10トリフロペラジンmg</v>
       </c>
       <c r="I15" s="11">
         <v>20.0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>0.0</v>
       </c>
       <c r="K15" s="11">
@@ -2321,31 +2321,31 @@
       <c r="A16" s="7">
         <v>15.0</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="9" t="str">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トロペロン（チミペロン）mg</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10トロペロン（チミペロン）mg</v>
       </c>
       <c r="I16" s="11">
         <v>76.9</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>0.0</v>
       </c>
       <c r="K16" s="11">
@@ -2362,31 +2362,31 @@
       <c r="A17" s="7">
         <v>16.0</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="9" t="str">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ナーベン（チオチキセン）mg</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ナーベン（チオチキセン）mg</v>
       </c>
       <c r="I17" s="11">
         <v>30.3</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>0.0</v>
       </c>
       <c r="K17" s="11">
@@ -2403,31 +2403,31 @@
       <c r="A18" s="7">
         <v>17.0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="9" t="str">
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ニューレプチル（プロペリシアジン）mg</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ニューレプチル（プロペリシアジン）mg</v>
       </c>
       <c r="I18" s="11">
         <v>5.0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>0.0</v>
       </c>
       <c r="K18" s="11">
@@ -2444,31 +2444,31 @@
       <c r="A19" s="7">
         <v>18.0</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="9" t="str">
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ノバミン（プロクロルペラジン）mg</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ノバミン（プロクロルペラジン）mg</v>
       </c>
       <c r="I19" s="11">
         <v>6.7</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>0.0</v>
       </c>
       <c r="K19" s="11">
@@ -2485,31 +2485,31 @@
       <c r="A20" s="7">
         <v>19.0</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="9" t="str">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>バルネチール（スルトプリド）mg</v>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="H20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10バルネチール（スルトプリド）mg</v>
       </c>
       <c r="I20" s="11">
         <v>0.5</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>0.0</v>
       </c>
       <c r="K20" s="11">
@@ -2526,31 +2526,31 @@
       <c r="A21" s="7">
         <v>20.0</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="9" t="str">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ピーゼットシー、トリオミン、トリラホン（ペルフェナジン）mg</v>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="H21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ピーゼットシー、トリオミン、トリラホン（ペルフェナジン）mg</v>
       </c>
       <c r="I21" s="11">
         <v>10.0</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>0.0</v>
       </c>
       <c r="K21" s="11">
@@ -2567,31 +2567,31 @@
       <c r="A22" s="7">
         <v>21.0</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="9" t="str">
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ヒルナミン、レボトミン（レボメプロマジン）mg</v>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="H22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ヒルナミン、レボトミン（レボメプロマジン）mg</v>
       </c>
       <c r="I22" s="11">
         <v>1.0</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <v>0.0</v>
       </c>
       <c r="K22" s="11">
@@ -2608,31 +2608,31 @@
       <c r="A23" s="7">
         <v>22.0</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="9" t="str">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>プシトミン（ペラジン）mg</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10プシトミン（ペラジン）mg</v>
       </c>
       <c r="I23" s="11">
         <v>1.0</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <v>0.0</v>
       </c>
       <c r="K23" s="11">
@@ -2649,31 +2649,31 @@
       <c r="A24" s="7">
         <v>23.0</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="9" t="str">
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>フルメジン（フルフェナジン）mg</v>
       </c>
-      <c r="H24" s="9" t="str">
+      <c r="H24" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10フルメジン（フルフェナジン）mg</v>
       </c>
       <c r="I24" s="11">
         <v>50.0</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <v>0.0</v>
       </c>
       <c r="K24" s="11">
@@ -2690,31 +2690,31 @@
       <c r="A25" s="7">
         <v>24.0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="9" t="str">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>プロピタン（ピパンペロン）mg</v>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="H25" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10プロピタン（ピパンペロン）mg</v>
       </c>
       <c r="I25" s="11">
         <v>0.5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <v>0.0</v>
       </c>
       <c r="K25" s="11">
@@ -2731,31 +2731,31 @@
       <c r="A26" s="7">
         <v>25.0</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="9" t="str">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ホーリット（オキシペルチン）mg</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H26" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ホーリット（オキシペルチン）mg</v>
       </c>
       <c r="I26" s="11">
         <v>1.3</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>0.0</v>
       </c>
       <c r="K26" s="11">
@@ -2772,31 +2772,31 @@
       <c r="A27" s="7">
         <v>26.0</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="9" t="str">
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メレリル（チオリダジン）mg</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10メレリル（チオリダジン）mg</v>
       </c>
       <c r="I27" s="11">
         <v>1.0</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>0.0</v>
       </c>
       <c r="K27" s="11">
@@ -2813,31 +2813,31 @@
       <c r="A28" s="7">
         <v>27.0</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="9" t="str">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ルバトレン（モペロン）mg</v>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="H28" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ルバトレン（モペロン）mg</v>
       </c>
       <c r="I28" s="11">
         <v>8.0</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <v>0.0</v>
       </c>
       <c r="K28" s="11">
@@ -2854,31 +2854,31 @@
       <c r="A29" s="7">
         <v>28.0</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="9" t="str">
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ロドピン、ロシゾピロン（ゾテピン）mg</v>
       </c>
-      <c r="H29" s="9" t="str">
+      <c r="H29" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10ロドピン、ロシゾピロン（ゾテピン）mg</v>
       </c>
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <v>0.0</v>
       </c>
       <c r="K29" s="11">
@@ -2895,24 +2895,24 @@
       <c r="A30" s="7">
         <v>29.0</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="9" t="str">
+      <c r="E30" s="8"/>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>インヴェガ（パリペリドン）mg</v>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="H30" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11インヴェガ（パリペリドン）mg</v>
       </c>
@@ -2936,24 +2936,24 @@
       <c r="A31" s="7">
         <v>30.0</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="9" t="str">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エビリファイ（アリピプラゾール）mg</v>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="H31" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11エビリファイ（アリピプラゾール）mg</v>
       </c>
@@ -2977,24 +2977,24 @@
       <c r="A32" s="7">
         <v>31.0</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="9" t="str">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>クロザリル（クロザピン）mg</v>
       </c>
-      <c r="H32" s="9" t="str">
+      <c r="H32" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11クロザリル（クロザピン）mg</v>
       </c>
@@ -3018,24 +3018,24 @@
       <c r="A33" s="7">
         <v>32.0</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="9" t="str">
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>シクレスト（アセナピン）mg</v>
       </c>
-      <c r="H33" s="9" t="str">
+      <c r="H33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11シクレスト（アセナピン）mg</v>
       </c>
@@ -3059,24 +3059,24 @@
       <c r="A34" s="7">
         <v>33.0</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="9" t="str">
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ジプレキサ、ジプレキサザイディス（オランザピン）mg</v>
       </c>
-      <c r="H34" s="9" t="str">
+      <c r="H34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11ジプレキサ、ジプレキサザイディス（オランザピン）mg</v>
       </c>
@@ -3100,24 +3100,24 @@
       <c r="A35" s="7">
         <v>34.0</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="9" t="str">
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セロクエル（クエチアピン）mg</v>
       </c>
-      <c r="H35" s="9" t="str">
+      <c r="H35" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11セロクエル（クエチアピン）mg</v>
       </c>
@@ -3141,26 +3141,26 @@
       <c r="A36" s="7">
         <v>35.0</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="9" t="str">
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ビプレッソmg</v>
       </c>
-      <c r="H36" s="9" t="str">
+      <c r="H36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11ビプレッソmg</v>
       </c>
@@ -3184,31 +3184,31 @@
       <c r="A37" s="7">
         <v>36.0</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="9" t="str">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ラツーダ（ルラシドン）mg</v>
       </c>
-      <c r="H37" s="9" t="str">
+      <c r="H37" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11ラツーダ（ルラシドン）mg</v>
       </c>
       <c r="I37" s="11">
         <v>0.0</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="13" t="s">
         <v>88</v>
       </c>
       <c r="K37" s="11">
@@ -3225,24 +3225,24 @@
       <c r="A38" s="7">
         <v>37.0</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="9" t="str">
+      <c r="E38" s="8"/>
+      <c r="F38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リスパダール（リスペリドン）mg</v>
       </c>
-      <c r="H38" s="9" t="str">
+      <c r="H38" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11リスパダール（リスペリドン）mg</v>
       </c>
@@ -3266,24 +3266,24 @@
       <c r="A39" s="7">
         <v>38.0</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="9" t="str">
+      <c r="E39" s="8"/>
+      <c r="F39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ルーラン（ペロスピロン）mg</v>
       </c>
-      <c r="H39" s="9" t="str">
+      <c r="H39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11ルーラン（ペロスピロン）mg</v>
       </c>
@@ -3307,31 +3307,31 @@
       <c r="A40" s="7">
         <v>39.0</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="9" t="str">
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レキサルティ（ブレクスピプラゾール）mg</v>
       </c>
-      <c r="H40" s="9" t="str">
+      <c r="H40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11レキサルティ（ブレクスピプラゾール）mg</v>
       </c>
       <c r="I40" s="11">
         <v>0.0</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>88</v>
       </c>
       <c r="K40" s="11">
@@ -3348,24 +3348,24 @@
       <c r="A41" s="7">
         <v>40.0</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="9" t="str">
+      <c r="E41" s="8"/>
+      <c r="F41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ロナセン（ブロナンセリン）mg</v>
       </c>
-      <c r="H41" s="9" t="str">
+      <c r="H41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11ロナセン（ブロナンセリン）mg</v>
       </c>
@@ -3392,30 +3392,30 @@
       <c r="B42" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="9" t="str">
+      <c r="F42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ロナセンテープmg</v>
       </c>
-      <c r="H42" s="9" t="str">
+      <c r="H42" s="8" t="str">
         <f t="shared" si="2"/>
         <v>12ロナセンテープmg</v>
       </c>
       <c r="I42" s="11">
         <v>0.0</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>88</v>
       </c>
       <c r="K42" s="11">
@@ -3435,30 +3435,30 @@
       <c r="B43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="G43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アナテンゾールmg/2週間</v>
       </c>
-      <c r="H43" s="9" t="str">
+      <c r="H43" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14アナテンゾールmg/2週間</v>
       </c>
       <c r="I43" s="11">
         <v>13.3</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <v>0.0</v>
       </c>
       <c r="K43" s="11">
@@ -3478,23 +3478,23 @@
       <c r="B44" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="9" t="str">
+      <c r="G44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エビリファイ持続性水懸筋注mg/4週間</v>
       </c>
-      <c r="H44" s="9" t="str">
+      <c r="H44" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14エビリファイ持続性水懸筋注mg/4週間</v>
       </c>
@@ -3521,23 +3521,23 @@
       <c r="B45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G45" s="9" t="str">
+      <c r="G45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ゼプリオンmg/4週間量</v>
       </c>
-      <c r="H45" s="9" t="str">
+      <c r="H45" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14ゼプリオンmg/4週間量</v>
       </c>
@@ -3564,23 +3564,23 @@
       <c r="B46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ゼプリオンTRImg/12週間量</v>
       </c>
-      <c r="H46" s="9" t="str">
+      <c r="H46" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14ゼプリオンTRImg/12週間量</v>
       </c>
@@ -3607,30 +3607,30 @@
       <c r="B47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="9" t="str">
+      <c r="G47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ハロマンスmg/4週間量</v>
       </c>
-      <c r="H47" s="9" t="str">
+      <c r="H47" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14ハロマンスmg/4週間量</v>
       </c>
       <c r="I47" s="11">
         <v>3.3</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="10">
         <v>0.0</v>
       </c>
       <c r="K47" s="11">
@@ -3650,30 +3650,30 @@
       <c r="B48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>フルデカシンmg/4週間量</v>
       </c>
-      <c r="H48" s="9" t="str">
+      <c r="H48" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14フルデカシンmg/4週間量</v>
       </c>
       <c r="I48" s="11">
         <v>6.7</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="10">
         <v>0.0</v>
       </c>
       <c r="K48" s="11">
@@ -3693,23 +3693,23 @@
       <c r="B49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="9" t="str">
+      <c r="G49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リスパダールコンスタmg/2週間量</v>
       </c>
-      <c r="H49" s="9" t="str">
+      <c r="H49" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14リスパダールコンスタmg/2週間量</v>
       </c>
@@ -3733,33 +3733,33 @@
       <c r="A50" s="7">
         <v>49.0</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="9" t="str">
+      <c r="F50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コントミン筋注mg</v>
       </c>
-      <c r="H50" s="9" t="str">
+      <c r="H50" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15コントミン筋注mg</v>
       </c>
       <c r="I50" s="11">
         <v>3.0</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="10">
         <v>0.0</v>
       </c>
       <c r="K50" s="11">
@@ -3776,26 +3776,26 @@
       <c r="A51" s="7">
         <v>50.0</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="9" t="str">
+      <c r="F51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ジプレキサ筋注mg</v>
       </c>
-      <c r="H51" s="9" t="str">
+      <c r="H51" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15ジプレキサ筋注mg</v>
       </c>
@@ -3819,33 +3819,33 @@
       <c r="A52" s="7">
         <v>51.0</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="9" t="str">
+      <c r="F52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セレネース注、ハロペリドール注mg</v>
       </c>
-      <c r="H52" s="9" t="str">
+      <c r="H52" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15セレネース注、ハロペリドール注mg</v>
       </c>
       <c r="I52" s="11">
         <v>100.0</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="10">
         <v>0.0</v>
       </c>
       <c r="K52" s="11">
@@ -3862,33 +3862,33 @@
       <c r="A53" s="7">
         <v>52.0</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="9" t="str">
+      <c r="F53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドグマチール筋注、ピリカップル筋注mg</v>
       </c>
-      <c r="H53" s="9" t="str">
+      <c r="H53" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15ドグマチール筋注、ピリカップル筋注mg</v>
       </c>
       <c r="I53" s="11">
         <v>2.0</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="10">
         <v>0.0</v>
       </c>
       <c r="K53" s="11">
@@ -3905,33 +3905,33 @@
       <c r="A54" s="7">
         <v>53.0</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="9" t="str">
+      <c r="F54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トロペロン注mg</v>
       </c>
-      <c r="H54" s="9" t="str">
+      <c r="H54" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15トロペロン注mg</v>
       </c>
       <c r="I54" s="11">
         <v>526.3</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="10">
         <v>0.0</v>
       </c>
       <c r="K54" s="11">
@@ -3948,33 +3948,33 @@
       <c r="A55" s="7">
         <v>54.0</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="9" t="str">
+      <c r="F55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ノバミン筋注mg</v>
       </c>
-      <c r="H55" s="9" t="str">
+      <c r="H55" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15ノバミン筋注mg</v>
       </c>
       <c r="I55" s="11">
         <v>46.7</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="10">
         <v>0.0</v>
       </c>
       <c r="K55" s="11">
@@ -3991,33 +3991,33 @@
       <c r="A56" s="7">
         <v>55.0</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="9" t="str">
+      <c r="F56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ピーゼットシー筋注mg</v>
       </c>
-      <c r="H56" s="9" t="str">
+      <c r="H56" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15ピーゼットシー筋注mg</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <v>50.0</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="10">
         <v>0.0</v>
       </c>
       <c r="K56" s="11">
@@ -4034,33 +4034,33 @@
       <c r="A57" s="7">
         <v>56.0</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="9" t="str">
+      <c r="F57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ヒルナミン筋注mg</v>
       </c>
-      <c r="H57" s="9" t="str">
+      <c r="H57" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15ヒルナミン筋注mg</v>
       </c>
       <c r="I57" s="11">
         <v>4.0</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="10">
         <v>0.0</v>
       </c>
       <c r="K57" s="11">
@@ -4077,31 +4077,31 @@
       <c r="A58" s="7">
         <v>57.0</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="9" t="str">
+      <c r="D58" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アイオナール（セコバルビタール）mg</v>
       </c>
-      <c r="H58" s="9" t="str">
+      <c r="H58" s="8" t="str">
         <f t="shared" si="2"/>
         <v>20アイオナール（セコバルビタール）mg</v>
       </c>
       <c r="I58" s="11">
         <v>0.0</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="10">
         <v>0.0</v>
       </c>
       <c r="K58" s="11">
@@ -4118,31 +4118,31 @@
       <c r="A59" s="7">
         <v>58.0</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="9" t="str">
+      <c r="D59" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="8" t="str">
         <f t="shared" si="1"/>
         <v>イソミタール（アモバルビタール）mg</v>
       </c>
-      <c r="H59" s="9" t="str">
+      <c r="H59" s="8" t="str">
         <f t="shared" si="2"/>
         <v>20イソミタール（アモバルビタール）mg</v>
       </c>
       <c r="I59" s="11">
         <v>0.0</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="10">
         <v>0.0</v>
       </c>
       <c r="K59" s="11">
@@ -4159,29 +4159,29 @@
       <c r="A60" s="7">
         <v>59.0</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="9" t="str">
+      <c r="B60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="8" t="str">
         <f t="shared" si="1"/>
         <v>バルビタールmg</v>
       </c>
-      <c r="H60" s="9" t="str">
+      <c r="H60" s="8" t="str">
         <f t="shared" si="2"/>
         <v>20バルビタールmg</v>
       </c>
       <c r="I60" s="11">
         <v>0.0</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="10">
         <v>0.0</v>
       </c>
       <c r="K60" s="11">
@@ -4198,31 +4198,31 @@
       <c r="A61" s="7">
         <v>60.0</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="9" t="str">
+      <c r="D61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="8" t="str">
         <f t="shared" si="1"/>
         <v>フェノバール（フェノバルビタール）mg</v>
       </c>
-      <c r="H61" s="9" t="str">
+      <c r="H61" s="8" t="str">
         <f t="shared" si="2"/>
         <v>20フェノバール（フェノバルビタール）mg</v>
       </c>
       <c r="I61" s="11">
         <v>0.0</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="10">
         <v>0.0</v>
       </c>
       <c r="K61" s="11">
@@ -4239,31 +4239,31 @@
       <c r="A62" s="7">
         <v>61.0</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="9" t="str">
+      <c r="D62" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ラボナ（ペントバルビタール）mg</v>
       </c>
-      <c r="H62" s="9" t="str">
+      <c r="H62" s="8" t="str">
         <f t="shared" si="2"/>
         <v>20ラボナ（ペントバルビタール）mg</v>
       </c>
       <c r="I62" s="11">
         <v>0.0</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="10">
         <v>0.0</v>
       </c>
       <c r="K62" s="11">
@@ -4280,29 +4280,29 @@
       <c r="A63" s="7">
         <v>62.0</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="9" t="str">
+      <c r="C63" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パッシフローラエキスmg</v>
       </c>
-      <c r="H63" s="9" t="str">
+      <c r="H63" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21パッシフローラエキスmg</v>
       </c>
       <c r="I63" s="11">
         <v>0.0</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="10">
         <v>0.0</v>
       </c>
       <c r="K63" s="11">
@@ -4319,33 +4319,33 @@
       <c r="A64" s="7">
         <v>63.0</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="9" t="str">
+      <c r="F64" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ヒダントールD配合錠錠</v>
       </c>
-      <c r="H64" s="9" t="str">
+      <c r="H64" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ヒダントールD配合錠錠</v>
       </c>
       <c r="I64" s="11">
         <v>0.0</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="10">
         <v>0.0</v>
       </c>
       <c r="K64" s="11">
@@ -4362,33 +4362,33 @@
       <c r="A65" s="7">
         <v>64.0</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65" s="9" t="str">
+      <c r="G65" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ヒダントールE配合錠錠</v>
       </c>
-      <c r="H65" s="9" t="str">
+      <c r="H65" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ヒダントールE配合錠錠</v>
       </c>
       <c r="I65" s="11">
         <v>0.0</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="10">
         <v>0.0</v>
       </c>
       <c r="K65" s="11">
@@ -4405,33 +4405,33 @@
       <c r="A66" s="7">
         <v>65.0</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="B66" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="D66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="9" t="str">
+      <c r="F66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ヒダントールF配合錠錠</v>
       </c>
-      <c r="H66" s="9" t="str">
+      <c r="H66" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ヒダントールF配合錠錠</v>
       </c>
       <c r="I66" s="11">
         <v>0.0</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="10">
         <v>0.0</v>
       </c>
       <c r="K66" s="11">
@@ -4448,31 +4448,31 @@
       <c r="A67" s="7">
         <v>66.0</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="9" t="str">
+      <c r="D67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ブロバリン（ブロモバレリル尿素）mg</v>
       </c>
-      <c r="H67" s="9" t="str">
+      <c r="H67" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ブロバリン（ブロモバレリル尿素）mg</v>
       </c>
       <c r="I67" s="11">
         <v>0.0</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="10">
         <v>0.0</v>
       </c>
       <c r="K67" s="11">
@@ -4489,33 +4489,33 @@
       <c r="A68" s="7">
         <v>67.0</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="9" t="s">
+      <c r="B68" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="9" t="str">
+      <c r="F68" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベゲタミンA配合錠錠</v>
       </c>
-      <c r="H68" s="9" t="str">
+      <c r="H68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ベゲタミンA配合錠錠</v>
       </c>
       <c r="I68" s="11">
         <v>25.0</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="10">
         <v>0.0</v>
       </c>
       <c r="K68" s="11">
@@ -4532,33 +4532,33 @@
       <c r="A69" s="7">
         <v>68.0</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="B69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="9" t="str">
+      <c r="F69" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベゲタミンB配合錠錠</v>
       </c>
-      <c r="H69" s="9" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21ベゲタミンB配合錠錠</v>
       </c>
       <c r="I69" s="11">
         <v>12.5</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="10">
         <v>0.0</v>
       </c>
       <c r="K69" s="11">
@@ -4575,31 +4575,31 @@
       <c r="A70" s="7">
         <v>69.0</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="B70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="9" t="str">
+      <c r="D70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リストミンＳ（ブトクタミド）mg</v>
       </c>
-      <c r="H70" s="9" t="str">
+      <c r="H70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21リストミンＳ（ブトクタミド）mg</v>
       </c>
       <c r="I70" s="11">
         <v>0.0</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="10">
         <v>0.0</v>
       </c>
       <c r="K70" s="11">
@@ -4616,33 +4616,33 @@
       <c r="A71" s="7">
         <v>70.0</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="9" t="s">
+      <c r="B71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G71" s="9" t="str">
+      <c r="F71" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>複合アレビアチン配合錠錠</v>
       </c>
-      <c r="H71" s="9" t="str">
+      <c r="H71" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21複合アレビアチン配合錠錠</v>
       </c>
       <c r="I71" s="11">
         <v>0.0</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="10">
         <v>0.0</v>
       </c>
       <c r="K71" s="11">
@@ -4659,29 +4659,29 @@
       <c r="A72" s="7">
         <v>71.0</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="9" t="str">
+      <c r="B72" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="8" t="str">
         <f t="shared" si="1"/>
         <v>抱水クロラールmg</v>
       </c>
-      <c r="H72" s="9" t="str">
+      <c r="H72" s="8" t="str">
         <f t="shared" si="2"/>
         <v>21抱水クロラールmg</v>
       </c>
       <c r="I72" s="11">
         <v>0.0</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="10">
         <v>0.0</v>
       </c>
       <c r="K72" s="11">
@@ -4698,31 +4698,31 @@
       <c r="A73" s="7">
         <v>72.0</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="9" t="str">
+      <c r="D73" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エリスパン（フルジアゼパム）mg</v>
       </c>
-      <c r="H73" s="9" t="str">
+      <c r="H73" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22エリスパン（フルジアゼパム）mg</v>
       </c>
       <c r="I73" s="11">
         <v>0.0</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="10">
         <v>0.0</v>
       </c>
       <c r="K73" s="11">
@@ -4739,31 +4739,31 @@
       <c r="A74" s="7">
         <v>73.0</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="B74" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="9" t="str">
+      <c r="D74" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エリミン（ニメタゼパム）mg</v>
       </c>
-      <c r="H74" s="9" t="str">
+      <c r="H74" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22エリミン（ニメタゼパム）mg</v>
       </c>
       <c r="I74" s="11">
         <v>0.0</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="10">
         <v>0.0</v>
       </c>
       <c r="K74" s="11">
@@ -4780,31 +4780,31 @@
       <c r="A75" s="7">
         <v>74.0</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="B75" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="9" t="str">
+      <c r="D75" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>グランダキシン（トフィソパム）mg</v>
       </c>
-      <c r="H75" s="9" t="str">
+      <c r="H75" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22グランダキシン（トフィソパム）mg</v>
       </c>
       <c r="I75" s="11">
         <v>0.0</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="10">
         <v>0.0</v>
       </c>
       <c r="K75" s="11">
@@ -4821,31 +4821,31 @@
       <c r="A76" s="7">
         <v>75.0</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D76" s="9" t="s">
+      <c r="B76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="9" t="str">
+      <c r="D76" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コレミナール（フルタゾラム）mg</v>
       </c>
-      <c r="H76" s="9" t="str">
+      <c r="H76" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22コレミナール（フルタゾラム）mg</v>
       </c>
       <c r="I76" s="11">
         <v>0.0</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="10">
         <v>0.0</v>
       </c>
       <c r="K76" s="11">
@@ -4862,31 +4862,31 @@
       <c r="A77" s="7">
         <v>76.0</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="9" t="str">
+      <c r="D77" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コントール、バランス（クロルジアゼポキシド）mg</v>
       </c>
-      <c r="H77" s="9" t="str">
+      <c r="H77" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22コントール、バランス（クロルジアゼポキシド）mg</v>
       </c>
       <c r="I77" s="11">
         <v>0.0</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="10">
         <v>0.0</v>
       </c>
       <c r="K77" s="11">
@@ -4903,31 +4903,31 @@
       <c r="A78" s="7">
         <v>77.0</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="9" t="str">
+      <c r="D78" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>サイレース、ロヒプノール（フルニトラゼパム）mg</v>
       </c>
-      <c r="H78" s="9" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22サイレース、ロヒプノール（フルニトラゼパム）mg</v>
       </c>
       <c r="I78" s="11">
         <v>0.0</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="10">
         <v>0.0</v>
       </c>
       <c r="K78" s="11">
@@ -4944,31 +4944,31 @@
       <c r="A79" s="7">
         <v>78.0</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="B79" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="9" t="str">
+      <c r="D79" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セダプラン（プラゼパム）mg</v>
       </c>
-      <c r="H79" s="9" t="str">
+      <c r="H79" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22セダプラン（プラゼパム）mg</v>
       </c>
       <c r="I79" s="11">
         <v>0.0</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="10">
         <v>0.0</v>
       </c>
       <c r="K79" s="11">
@@ -4985,31 +4985,31 @@
       <c r="A80" s="7">
         <v>79.0</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="9" t="s">
+      <c r="B80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="9" t="str">
+      <c r="D80" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セパゾン（クロキサゾラム）mg</v>
       </c>
-      <c r="H80" s="9" t="str">
+      <c r="H80" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22セパゾン（クロキサゾラム）mg</v>
       </c>
       <c r="I80" s="11">
         <v>0.0</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="10">
         <v>0.0</v>
       </c>
       <c r="K80" s="11">
@@ -5026,31 +5026,31 @@
       <c r="A81" s="7">
         <v>80.0</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="B81" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="9" t="str">
+      <c r="D81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セルシン、ホリゾン（ジアゼパム）mg</v>
       </c>
-      <c r="H81" s="9" t="str">
+      <c r="H81" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22セルシン、ホリゾン（ジアゼパム）mg</v>
       </c>
       <c r="I81" s="11">
         <v>0.0</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J81" s="10">
         <v>0.0</v>
       </c>
       <c r="K81" s="11">
@@ -5067,31 +5067,31 @@
       <c r="A82" s="7">
         <v>81.0</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="9" t="str">
+      <c r="D82" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セレナール（オキサゾラム）mg</v>
       </c>
-      <c r="H82" s="9" t="str">
+      <c r="H82" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22セレナール（オキサゾラム）mg</v>
       </c>
       <c r="I82" s="11">
         <v>0.0</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="10">
         <v>0.0</v>
       </c>
       <c r="K82" s="11">
@@ -5108,31 +5108,31 @@
       <c r="A83" s="7">
         <v>82.0</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="9" t="str">
+      <c r="D83" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ソメリン（ハロキサゾラム）mg</v>
       </c>
-      <c r="H83" s="9" t="str">
+      <c r="H83" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ソメリン（ハロキサゾラム）mg</v>
       </c>
       <c r="I83" s="11">
         <v>0.0</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="10">
         <v>0.0</v>
       </c>
       <c r="K83" s="11">
@@ -5149,31 +5149,31 @@
       <c r="A84" s="7">
         <v>83.0</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="9" t="str">
+      <c r="D84" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ソラナックス、コンスタン（アルプラゾラム）mg</v>
       </c>
-      <c r="H84" s="9" t="str">
+      <c r="H84" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ソラナックス、コンスタン（アルプラゾラム）mg</v>
       </c>
       <c r="I84" s="11">
         <v>0.0</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="10">
         <v>0.0</v>
       </c>
       <c r="K84" s="11">
@@ -5190,31 +5190,31 @@
       <c r="A85" s="7">
         <v>84.0</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="9" t="str">
+      <c r="D85" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ダルメート（フルラゼパム）mg</v>
       </c>
-      <c r="H85" s="9" t="str">
+      <c r="H85" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ダルメート（フルラゼパム）mg</v>
       </c>
       <c r="I85" s="11">
         <v>0.0</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="10">
         <v>0.0</v>
       </c>
       <c r="K85" s="11">
@@ -5231,31 +5231,31 @@
       <c r="A86" s="7">
         <v>85.0</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="B86" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="9" t="str">
+      <c r="D86" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デパス（エチゾラム）mg</v>
       </c>
-      <c r="H86" s="9" t="str">
+      <c r="H86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22デパス（エチゾラム）mg</v>
       </c>
       <c r="I86" s="11">
         <v>0.0</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="10">
         <v>0.0</v>
       </c>
       <c r="K86" s="11">
@@ -5272,31 +5272,31 @@
       <c r="A87" s="7">
         <v>86.0</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="B87" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="9" t="str">
+      <c r="D87" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドラール（クアゼパム）mg</v>
       </c>
-      <c r="H87" s="9" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ドラール（クアゼパム）mg</v>
       </c>
       <c r="I87" s="11">
         <v>0.0</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="10">
         <v>0.0</v>
       </c>
       <c r="K87" s="11">
@@ -5313,31 +5313,31 @@
       <c r="A88" s="7">
         <v>87.0</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" s="9" t="s">
+      <c r="B88" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="9" t="str">
+      <c r="D88" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ハイロング（オキサゼパム）mg</v>
       </c>
-      <c r="H88" s="9" t="str">
+      <c r="H88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ハイロング（オキサゼパム）mg</v>
       </c>
       <c r="I88" s="11">
         <v>0.0</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="10">
         <v>0.0</v>
       </c>
       <c r="K88" s="11">
@@ -5354,31 +5354,31 @@
       <c r="A89" s="7">
         <v>88.0</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="B89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="9" t="str">
+      <c r="D89" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ハルシオン、アサシオン（トリアゾラム）mg</v>
       </c>
-      <c r="H89" s="9" t="str">
+      <c r="H89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ハルシオン、アサシオン（トリアゾラム）mg</v>
       </c>
       <c r="I89" s="11">
         <v>0.0</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="10">
         <v>0.0</v>
       </c>
       <c r="K89" s="11">
@@ -5395,31 +5395,31 @@
       <c r="A90" s="7">
         <v>89.0</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="B90" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="9" t="str">
+      <c r="D90" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベンザリン（ニトラゼパム）mg</v>
       </c>
-      <c r="H90" s="9" t="str">
+      <c r="H90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ベンザリン（ニトラゼパム）mg</v>
       </c>
       <c r="I90" s="11">
         <v>0.0</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J90" s="10">
         <v>0.0</v>
       </c>
       <c r="K90" s="11">
@@ -5436,31 +5436,31 @@
       <c r="A91" s="7">
         <v>90.0</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="B91" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="9" t="str">
+      <c r="D91" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メイラックス（ロフラゼプ酸エチル）mg</v>
       </c>
-      <c r="H91" s="9" t="str">
+      <c r="H91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22メイラックス（ロフラゼプ酸エチル）mg</v>
       </c>
       <c r="I91" s="11">
         <v>0.0</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="10">
         <v>0.0</v>
       </c>
       <c r="K91" s="11">
@@ -5477,31 +5477,31 @@
       <c r="A92" s="7">
         <v>91.0</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="B92" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="9" t="str">
+      <c r="D92" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メレックス（メキサゾラム）mg</v>
       </c>
-      <c r="H92" s="9" t="str">
+      <c r="H92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22メレックス（メキサゾラム）mg</v>
       </c>
       <c r="I92" s="11">
         <v>0.0</v>
       </c>
-      <c r="J92" s="12">
+      <c r="J92" s="10">
         <v>0.0</v>
       </c>
       <c r="K92" s="11">
@@ -5518,31 +5518,31 @@
       <c r="A93" s="7">
         <v>92.0</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="B93" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="9" t="str">
+      <c r="D93" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メンドン（クロラゼプ酸）mg</v>
       </c>
-      <c r="H93" s="9" t="str">
+      <c r="H93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22メンドン（クロラゼプ酸）mg</v>
       </c>
       <c r="I93" s="11">
         <v>0.0</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93" s="10">
         <v>0.0</v>
       </c>
       <c r="K93" s="11">
@@ -5559,31 +5559,31 @@
       <c r="A94" s="7">
         <v>93.0</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D94" s="9" t="s">
+      <c r="B94" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="9" t="str">
+      <c r="D94" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ユーロジン（エスタゾラム）mg</v>
       </c>
-      <c r="H94" s="9" t="str">
+      <c r="H94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ユーロジン（エスタゾラム）mg</v>
       </c>
       <c r="I94" s="11">
         <v>0.0</v>
       </c>
-      <c r="J94" s="12">
+      <c r="J94" s="10">
         <v>0.0</v>
       </c>
       <c r="K94" s="11">
@@ -5600,31 +5600,31 @@
       <c r="A95" s="7">
         <v>94.0</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D95" s="9" t="s">
+      <c r="B95" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="9" t="str">
+      <c r="D95" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リーゼ（クロチアゼパム）mg</v>
       </c>
-      <c r="H95" s="9" t="str">
+      <c r="H95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22リーゼ（クロチアゼパム）mg</v>
       </c>
       <c r="I95" s="11">
         <v>0.0</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="10">
         <v>0.0</v>
       </c>
       <c r="K95" s="11">
@@ -5641,31 +5641,31 @@
       <c r="A96" s="7">
         <v>95.0</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" s="9" t="s">
+      <c r="B96" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="9" t="str">
+      <c r="D96" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リスミー（リルマザホン）mg</v>
       </c>
-      <c r="H96" s="9" t="str">
+      <c r="H96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22リスミー（リルマザホン）mg</v>
       </c>
       <c r="I96" s="11">
         <v>0.0</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96" s="10">
         <v>0.0</v>
       </c>
       <c r="K96" s="11">
@@ -5682,31 +5682,31 @@
       <c r="A97" s="7">
         <v>96.0</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="B97" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="9" t="str">
+      <c r="D97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リボトリール、ランドセン（クロナゼパム）mg</v>
       </c>
-      <c r="H97" s="9" t="str">
+      <c r="H97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22リボトリール、ランドセン（クロナゼパム）mg</v>
       </c>
       <c r="I97" s="11">
         <v>0.0</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="10">
         <v>0.0</v>
       </c>
       <c r="K97" s="11">
@@ -5723,31 +5723,31 @@
       <c r="A98" s="7">
         <v>97.0</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="B98" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="9" t="str">
+      <c r="D98" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レキソタン、セニラン（ブロマゼパム）mg</v>
       </c>
-      <c r="H98" s="9" t="str">
+      <c r="H98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22レキソタン、セニラン（ブロマゼパム）mg</v>
       </c>
       <c r="I98" s="11">
         <v>0.0</v>
       </c>
-      <c r="J98" s="12">
+      <c r="J98" s="10">
         <v>0.0</v>
       </c>
       <c r="K98" s="11">
@@ -5764,31 +5764,31 @@
       <c r="A99" s="7">
         <v>98.0</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="B99" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="9" t="str">
+      <c r="D99" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レスタス（フルトプラゼパム）mg</v>
       </c>
-      <c r="H99" s="9" t="str">
+      <c r="H99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22レスタス（フルトプラゼパム）mg</v>
       </c>
       <c r="I99" s="11">
         <v>0.0</v>
       </c>
-      <c r="J99" s="12">
+      <c r="J99" s="10">
         <v>0.0</v>
       </c>
       <c r="K99" s="11">
@@ -5805,31 +5805,31 @@
       <c r="A100" s="7">
         <v>99.0</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="B100" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="9" t="str">
+      <c r="D100" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レスミット（メダゼパム）mg</v>
       </c>
-      <c r="H100" s="9" t="str">
+      <c r="H100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22レスミット（メダゼパム）mg</v>
       </c>
       <c r="I100" s="11">
         <v>0.0</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="10">
         <v>0.0</v>
       </c>
       <c r="K100" s="11">
@@ -5846,31 +5846,31 @@
       <c r="A101" s="7">
         <v>100.0</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="B101" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="9" t="str">
+      <c r="D101" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レンドルミン、グッドミン（ブロチゾラム）mg</v>
       </c>
-      <c r="H101" s="9" t="str">
+      <c r="H101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22レンドルミン、グッドミン（ブロチゾラム）mg</v>
       </c>
       <c r="I101" s="11">
         <v>0.0</v>
       </c>
-      <c r="J101" s="12">
+      <c r="J101" s="10">
         <v>0.0</v>
       </c>
       <c r="K101" s="11">
@@ -5887,31 +5887,31 @@
       <c r="A102" s="7">
         <v>101.0</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="9" t="s">
+      <c r="B102" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="9" t="str">
+      <c r="D102" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ロラメット、エバミール（ロルメタゼパム）mg</v>
       </c>
-      <c r="H102" s="9" t="str">
+      <c r="H102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ロラメット、エバミール（ロルメタゼパム）mg</v>
       </c>
       <c r="I102" s="11">
         <v>0.0</v>
       </c>
-      <c r="J102" s="12">
+      <c r="J102" s="10">
         <v>0.0</v>
       </c>
       <c r="K102" s="11">
@@ -5928,31 +5928,31 @@
       <c r="A103" s="7">
         <v>102.0</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="B103" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="9" t="str">
+      <c r="D103" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ワイパックス（ロラゼパム）mg</v>
       </c>
-      <c r="H103" s="9" t="str">
+      <c r="H103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22ワイパックス（ロラゼパム）mg</v>
       </c>
       <c r="I103" s="11">
         <v>0.0</v>
       </c>
-      <c r="J103" s="12">
+      <c r="J103" s="10">
         <v>0.0</v>
       </c>
       <c r="K103" s="11">
@@ -5969,31 +5969,31 @@
       <c r="A104" s="7">
         <v>103.0</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="9" t="str">
+      <c r="D104" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アモバン（ゾピクロン）mg</v>
       </c>
-      <c r="H104" s="9" t="str">
+      <c r="H104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>25アモバン（ゾピクロン）mg</v>
       </c>
       <c r="I104" s="11">
         <v>0.0</v>
       </c>
-      <c r="J104" s="12">
+      <c r="J104" s="10">
         <v>0.0</v>
       </c>
       <c r="K104" s="11">
@@ -6010,31 +6010,31 @@
       <c r="A105" s="7">
         <v>104.0</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="B105" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" s="9" t="str">
+      <c r="D105" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>マイスリー（ゾルピデム）mg</v>
       </c>
-      <c r="H105" s="9" t="str">
+      <c r="H105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>25マイスリー（ゾルピデム）mg</v>
       </c>
       <c r="I105" s="11">
         <v>0.0</v>
       </c>
-      <c r="J105" s="12">
+      <c r="J105" s="10">
         <v>0.0</v>
       </c>
       <c r="K105" s="11">
@@ -6051,31 +6051,31 @@
       <c r="A106" s="7">
         <v>105.0</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="B106" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="9" t="str">
+      <c r="D106" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ルネスタ（エスゾピクロン）mg</v>
       </c>
-      <c r="H106" s="9" t="str">
+      <c r="H106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>25ルネスタ（エスゾピクロン）mg</v>
       </c>
       <c r="I106" s="11">
         <v>0.0</v>
       </c>
-      <c r="J106" s="12">
+      <c r="J106" s="10">
         <v>0.0</v>
       </c>
       <c r="K106" s="11">
@@ -6092,33 +6092,33 @@
       <c r="A107" s="7">
         <v>106.0</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G107" s="9" t="str">
+      <c r="F107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アストモリジン配合腸溶錠／胃溶錠錠</v>
       </c>
-      <c r="H107" s="9" t="str">
+      <c r="H107" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29アストモリジン配合腸溶錠／胃溶錠錠</v>
       </c>
       <c r="I107" s="11">
         <v>0.0</v>
       </c>
-      <c r="J107" s="12">
+      <c r="J107" s="10">
         <v>0.0</v>
       </c>
       <c r="K107" s="11">
@@ -6135,31 +6135,31 @@
       <c r="A108" s="7">
         <v>107.0</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D108" s="9" t="s">
+      <c r="B108" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="9" t="str">
+      <c r="D108" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セディール（タンドスピロン）mg</v>
       </c>
-      <c r="H108" s="9" t="str">
+      <c r="H108" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29セディール（タンドスピロン）mg</v>
       </c>
       <c r="I108" s="11">
         <v>0.0</v>
       </c>
-      <c r="J108" s="12">
+      <c r="J108" s="10">
         <v>0.0</v>
       </c>
       <c r="K108" s="11">
@@ -6176,31 +6176,31 @@
       <c r="A109" s="7">
         <v>108.0</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="B109" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="9" t="str">
+      <c r="D109" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デエビゴ（レンボレキサント）mg</v>
       </c>
-      <c r="H109" s="9" t="str">
+      <c r="H109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29デエビゴ（レンボレキサント）mg</v>
       </c>
       <c r="I109" s="11">
         <v>0.0</v>
       </c>
-      <c r="J109" s="12">
+      <c r="J109" s="10">
         <v>0.0</v>
       </c>
       <c r="K109" s="11">
@@ -6209,7 +6209,7 @@
       <c r="L109" s="11">
         <v>0.0</v>
       </c>
-      <c r="M109" s="14" t="s">
+      <c r="M109" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6217,33 +6217,33 @@
       <c r="A110" s="7">
         <v>109.0</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="9" t="s">
+      <c r="B110" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G110" s="9" t="str">
+      <c r="F110" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トラベルミン配合錠錠</v>
       </c>
-      <c r="H110" s="9" t="str">
+      <c r="H110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29トラベルミン配合錠錠</v>
       </c>
       <c r="I110" s="11">
         <v>0.0</v>
       </c>
-      <c r="J110" s="12">
+      <c r="J110" s="10">
         <v>0.0</v>
       </c>
       <c r="K110" s="11">
@@ -6260,33 +6260,33 @@
       <c r="A111" s="7">
         <v>110.0</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D111" s="9" t="s">
+      <c r="B111" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G111" s="9" t="str">
+      <c r="F111" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G111" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トランコロンＰ配合錠錠</v>
       </c>
-      <c r="H111" s="9" t="str">
+      <c r="H111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29トランコロンＰ配合錠錠</v>
       </c>
       <c r="I111" s="11">
         <v>0.0</v>
       </c>
-      <c r="J111" s="12">
+      <c r="J111" s="10">
         <v>0.0</v>
       </c>
       <c r="K111" s="11">
@@ -6303,31 +6303,31 @@
       <c r="A112" s="7">
         <v>111.0</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" s="9" t="s">
+      <c r="B112" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="9" t="str">
+      <c r="D112" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベルソムラ（スボレキサント）mg</v>
       </c>
-      <c r="H112" s="9" t="str">
+      <c r="H112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29ベルソムラ（スボレキサント）mg</v>
       </c>
       <c r="I112" s="11">
         <v>0.0</v>
       </c>
-      <c r="J112" s="12">
+      <c r="J112" s="10">
         <v>0.0</v>
       </c>
       <c r="K112" s="11">
@@ -6336,7 +6336,7 @@
       <c r="L112" s="11">
         <v>0.0</v>
       </c>
-      <c r="M112" s="14" t="s">
+      <c r="M112" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6344,31 +6344,31 @@
       <c r="A113" s="7">
         <v>112.0</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" s="9" t="s">
+      <c r="B113" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="9" t="str">
+      <c r="D113" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メラトベル（メラトニン）mg</v>
       </c>
-      <c r="H113" s="9" t="str">
+      <c r="H113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29メラトベル（メラトニン）mg</v>
       </c>
       <c r="I113" s="11">
         <v>0.0</v>
       </c>
-      <c r="J113" s="12">
+      <c r="J113" s="10">
         <v>0.0</v>
       </c>
       <c r="K113" s="11">
@@ -6377,7 +6377,7 @@
       <c r="L113" s="11">
         <v>0.0</v>
       </c>
-      <c r="M113" s="14" t="s">
+      <c r="M113" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6385,31 +6385,31 @@
       <c r="A114" s="7">
         <v>113.0</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="9" t="s">
+      <c r="B114" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="9" t="str">
+      <c r="D114" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ロゼレム（ラメルテオン）mg</v>
       </c>
-      <c r="H114" s="9" t="str">
+      <c r="H114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29ロゼレム（ラメルテオン）mg</v>
       </c>
       <c r="I114" s="11">
         <v>0.0</v>
       </c>
-      <c r="J114" s="12">
+      <c r="J114" s="10">
         <v>0.0</v>
       </c>
       <c r="K114" s="11">
@@ -6418,7 +6418,7 @@
       <c r="L114" s="11">
         <v>0.0</v>
       </c>
-      <c r="M114" s="14" t="s">
+      <c r="M114" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6426,31 +6426,31 @@
       <c r="A115" s="7">
         <v>114.0</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="9" t="str">
+      <c r="D115" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アナフラニール（クロミプラミン）mg</v>
       </c>
-      <c r="H115" s="9" t="str">
+      <c r="H115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30アナフラニール（クロミプラミン）mg</v>
       </c>
       <c r="I115" s="11">
         <v>0.0</v>
       </c>
-      <c r="J115" s="12">
+      <c r="J115" s="10">
         <v>0.0</v>
       </c>
       <c r="K115" s="11">
@@ -6467,31 +6467,31 @@
       <c r="A116" s="7">
         <v>115.0</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D116" s="9" t="s">
+      <c r="B116" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="9" t="str">
+      <c r="D116" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アモキサン（アモキサピン）mg</v>
       </c>
-      <c r="H116" s="9" t="str">
+      <c r="H116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30アモキサン（アモキサピン）mg</v>
       </c>
       <c r="I116" s="11">
         <v>0.0</v>
       </c>
-      <c r="J116" s="12">
+      <c r="J116" s="10">
         <v>0.0</v>
       </c>
       <c r="K116" s="11">
@@ -6508,31 +6508,31 @@
       <c r="A117" s="7">
         <v>116.0</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" s="9" t="s">
+      <c r="B117" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="9" t="str">
+      <c r="D117" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アンプリット（ロフェプラミン）mg</v>
       </c>
-      <c r="H117" s="9" t="str">
+      <c r="H117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30アンプリット（ロフェプラミン）mg</v>
       </c>
       <c r="I117" s="11">
         <v>0.0</v>
       </c>
-      <c r="J117" s="12">
+      <c r="J117" s="10">
         <v>0.0</v>
       </c>
       <c r="K117" s="11">
@@ -6549,31 +6549,31 @@
       <c r="A118" s="7">
         <v>117.0</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D118" s="9" t="s">
+      <c r="B118" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="9" t="str">
+      <c r="D118" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>サフラ（サフラジン）mg</v>
       </c>
-      <c r="H118" s="9" t="str">
+      <c r="H118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30サフラ（サフラジン）mg</v>
       </c>
       <c r="I118" s="11">
         <v>0.0</v>
       </c>
-      <c r="J118" s="12">
+      <c r="J118" s="10">
         <v>0.0</v>
       </c>
       <c r="K118" s="11">
@@ -6590,31 +6590,31 @@
       <c r="A119" s="7">
         <v>118.0</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D119" s="9" t="s">
+      <c r="B119" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="9" t="str">
+      <c r="D119" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="8" t="str">
         <f t="shared" si="1"/>
         <v>スルモンチール（トリミプラミン）mg</v>
       </c>
-      <c r="H119" s="9" t="str">
+      <c r="H119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30スルモンチール（トリミプラミン）mg</v>
       </c>
       <c r="I119" s="11">
         <v>0.0</v>
       </c>
-      <c r="J119" s="12">
+      <c r="J119" s="10">
         <v>0.0</v>
       </c>
       <c r="K119" s="11">
@@ -6631,31 +6631,31 @@
       <c r="A120" s="7">
         <v>119.0</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D120" s="9" t="s">
+      <c r="B120" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="9" t="str">
+      <c r="D120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テシプール（セチプチリン）mg</v>
       </c>
-      <c r="H120" s="9" t="str">
+      <c r="H120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30テシプール（セチプチリン）mg</v>
       </c>
       <c r="I120" s="11">
         <v>0.0</v>
       </c>
-      <c r="J120" s="12">
+      <c r="J120" s="10">
         <v>0.0</v>
       </c>
       <c r="K120" s="11">
@@ -6672,31 +6672,31 @@
       <c r="A121" s="7">
         <v>120.0</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="B121" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="9" t="str">
+      <c r="D121" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テトラミド（ミアンセリン）mg</v>
       </c>
-      <c r="H121" s="9" t="str">
+      <c r="H121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30テトラミド（ミアンセリン）mg</v>
       </c>
       <c r="I121" s="11">
         <v>0.0</v>
       </c>
-      <c r="J121" s="12">
+      <c r="J121" s="10">
         <v>0.0</v>
       </c>
       <c r="K121" s="11">
@@ -6713,31 +6713,31 @@
       <c r="A122" s="7">
         <v>121.0</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D122" s="9" t="s">
+      <c r="B122" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="9" t="str">
+      <c r="D122" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トフラニール（イミプラミン）mg</v>
       </c>
-      <c r="H122" s="9" t="str">
+      <c r="H122" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30トフラニール（イミプラミン）mg</v>
       </c>
       <c r="I122" s="11">
         <v>0.0</v>
       </c>
-      <c r="J122" s="12">
+      <c r="J122" s="10">
         <v>0.0</v>
       </c>
       <c r="K122" s="11">
@@ -6754,31 +6754,31 @@
       <c r="A123" s="7">
         <v>122.0</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="9" t="s">
+      <c r="B123" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="9" t="str">
+      <c r="D123" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トリプタノール（アミトリプチリン）mg</v>
       </c>
-      <c r="H123" s="9" t="str">
+      <c r="H123" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30トリプタノール（アミトリプチリン）mg</v>
       </c>
       <c r="I123" s="11">
         <v>0.0</v>
       </c>
-      <c r="J123" s="12">
+      <c r="J123" s="10">
         <v>0.0</v>
       </c>
       <c r="K123" s="11">
@@ -6795,31 +6795,31 @@
       <c r="A124" s="7">
         <v>123.0</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="B124" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="9" t="str">
+      <c r="D124" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ノリトレン（ノルトリプチリン）mg</v>
       </c>
-      <c r="H124" s="9" t="str">
+      <c r="H124" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30ノリトレン（ノルトリプチリン）mg</v>
       </c>
       <c r="I124" s="11">
         <v>0.0</v>
       </c>
-      <c r="J124" s="12">
+      <c r="J124" s="10">
         <v>0.0</v>
       </c>
       <c r="K124" s="11">
@@ -6836,31 +6836,31 @@
       <c r="A125" s="7">
         <v>124.0</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="9" t="s">
+      <c r="B125" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" s="9" t="str">
+      <c r="D125" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パートフラン（デシプラミン）mg</v>
       </c>
-      <c r="H125" s="9" t="str">
+      <c r="H125" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30パートフラン（デシプラミン）mg</v>
       </c>
       <c r="I125" s="11">
         <v>0.0</v>
       </c>
-      <c r="J125" s="12">
+      <c r="J125" s="10">
         <v>0.0</v>
       </c>
       <c r="K125" s="11">
@@ -6877,31 +6877,31 @@
       <c r="A126" s="7">
         <v>125.0</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D126" s="9" t="s">
+      <c r="B126" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="9" t="str">
+      <c r="D126" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="8" t="str">
         <f t="shared" si="1"/>
         <v>プロチアデン（ドスレピン）mg</v>
       </c>
-      <c r="H126" s="9" t="str">
+      <c r="H126" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30プロチアデン（ドスレピン）mg</v>
       </c>
       <c r="I126" s="11">
         <v>0.0</v>
       </c>
-      <c r="J126" s="12">
+      <c r="J126" s="10">
         <v>0.0</v>
       </c>
       <c r="K126" s="11">
@@ -6918,31 +6918,31 @@
       <c r="A127" s="7">
         <v>126.0</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D127" s="9" t="s">
+      <c r="B127" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="9" t="str">
+      <c r="D127" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ルジオミール（マプロチリン）mg</v>
       </c>
-      <c r="H127" s="9" t="str">
+      <c r="H127" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30ルジオミール（マプロチリン）mg</v>
       </c>
       <c r="I127" s="11">
         <v>0.0</v>
       </c>
-      <c r="J127" s="12">
+      <c r="J127" s="10">
         <v>0.0</v>
       </c>
       <c r="K127" s="11">
@@ -6959,31 +6959,31 @@
       <c r="A128" s="7">
         <v>127.0</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" s="9" t="s">
+      <c r="B128" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="9" t="str">
+      <c r="D128" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レスリン、デジレル（トラゾドン）mg</v>
       </c>
-      <c r="H128" s="9" t="str">
+      <c r="H128" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30レスリン、デジレル（トラゾドン）mg</v>
       </c>
       <c r="I128" s="11">
         <v>0.0</v>
       </c>
-      <c r="J128" s="12">
+      <c r="J128" s="10">
         <v>0.0</v>
       </c>
       <c r="K128" s="11">
@@ -7000,31 +7000,31 @@
       <c r="A129" s="7">
         <v>128.0</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B129" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="9" t="str">
+      <c r="D129" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ジェイゾロフト（セルトラリン）mg</v>
       </c>
-      <c r="H129" s="9" t="str">
+      <c r="H129" s="8" t="str">
         <f t="shared" si="2"/>
         <v>33ジェイゾロフト（セルトラリン）mg</v>
       </c>
       <c r="I129" s="11">
         <v>0.0</v>
       </c>
-      <c r="J129" s="12">
+      <c r="J129" s="10">
         <v>0.0</v>
       </c>
       <c r="K129" s="11">
@@ -7041,31 +7041,31 @@
       <c r="A130" s="7">
         <v>129.0</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D130" s="9" t="s">
+      <c r="B130" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="9" t="str">
+      <c r="D130" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デプロメール、ルボックス（フルボキサミン）mg</v>
       </c>
-      <c r="H130" s="9" t="str">
+      <c r="H130" s="8" t="str">
         <f t="shared" si="2"/>
         <v>33デプロメール、ルボックス（フルボキサミン）mg</v>
       </c>
       <c r="I130" s="11">
         <v>0.0</v>
       </c>
-      <c r="J130" s="12">
+      <c r="J130" s="10">
         <v>0.0</v>
       </c>
       <c r="K130" s="11">
@@ -7082,31 +7082,31 @@
       <c r="A131" s="7">
         <v>130.0</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D131" s="9" t="s">
+      <c r="B131" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" s="9" t="str">
+      <c r="D131" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パキシル（パロキセチン）mg</v>
       </c>
-      <c r="H131" s="9" t="str">
+      <c r="H131" s="8" t="str">
         <f t="shared" si="2"/>
         <v>33パキシル（パロキセチン）mg</v>
       </c>
       <c r="I131" s="11">
         <v>0.0</v>
       </c>
-      <c r="J131" s="12">
+      <c r="J131" s="10">
         <v>0.0</v>
       </c>
       <c r="K131" s="11">
@@ -7123,33 +7123,33 @@
       <c r="A132" s="7">
         <v>131.0</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D132" s="9" t="s">
+      <c r="B132" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="D132" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F132" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="9" t="str">
+      <c r="F132" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パキシルCRmg</v>
       </c>
-      <c r="H132" s="9" t="str">
+      <c r="H132" s="8" t="str">
         <f t="shared" si="2"/>
         <v>33パキシルCRmg</v>
       </c>
       <c r="I132" s="11">
         <v>0.0</v>
       </c>
-      <c r="J132" s="12">
+      <c r="J132" s="10">
         <v>0.0</v>
       </c>
       <c r="K132" s="11">
@@ -7166,31 +7166,31 @@
       <c r="A133" s="7">
         <v>132.0</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="B133" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="9" t="str">
+      <c r="D133" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レクサプロ（エスシタロプラム）mg</v>
       </c>
-      <c r="H133" s="9" t="str">
+      <c r="H133" s="8" t="str">
         <f t="shared" si="2"/>
         <v>33レクサプロ（エスシタロプラム）mg</v>
       </c>
       <c r="I133" s="11">
         <v>0.0</v>
       </c>
-      <c r="J133" s="12">
+      <c r="J133" s="10">
         <v>0.0</v>
       </c>
       <c r="K133" s="11">
@@ -7207,31 +7207,31 @@
       <c r="A134" s="7">
         <v>133.0</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" s="9" t="str">
+      <c r="D134" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="8" t="str">
         <f t="shared" si="1"/>
         <v>イフェクサー（ベンラファキシン）mg</v>
       </c>
-      <c r="H134" s="9" t="str">
+      <c r="H134" s="8" t="str">
         <f t="shared" si="2"/>
         <v>34イフェクサー（ベンラファキシン）mg</v>
       </c>
       <c r="I134" s="11">
         <v>0.0</v>
       </c>
-      <c r="J134" s="12">
+      <c r="J134" s="10">
         <v>0.0</v>
       </c>
       <c r="K134" s="11">
@@ -7248,31 +7248,31 @@
       <c r="A135" s="7">
         <v>134.0</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="B135" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="9" t="str">
+      <c r="D135" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="8" t="str">
         <f t="shared" si="1"/>
         <v>サインバルタ（デュロキセチン）mg</v>
       </c>
-      <c r="H135" s="9" t="str">
+      <c r="H135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>34サインバルタ（デュロキセチン）mg</v>
       </c>
       <c r="I135" s="11">
         <v>0.0</v>
       </c>
-      <c r="J135" s="12">
+      <c r="J135" s="10">
         <v>0.0</v>
       </c>
       <c r="K135" s="11">
@@ -7289,31 +7289,31 @@
       <c r="A136" s="7">
         <v>135.0</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D136" s="9" t="s">
+      <c r="B136" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" s="9" t="str">
+      <c r="D136" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トレドミン（ミルナシプラン）mg</v>
       </c>
-      <c r="H136" s="9" t="str">
+      <c r="H136" s="8" t="str">
         <f t="shared" si="2"/>
         <v>34トレドミン（ミルナシプラン）mg</v>
       </c>
       <c r="I136" s="11">
         <v>0.0</v>
       </c>
-      <c r="J136" s="12">
+      <c r="J136" s="10">
         <v>0.0</v>
       </c>
       <c r="K136" s="11">
@@ -7330,31 +7330,31 @@
       <c r="A137" s="7">
         <v>136.0</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="C137" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" s="9" t="str">
+      <c r="D137" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リフレックス、レメロン（ミルタザピン）mg</v>
       </c>
-      <c r="H137" s="9" t="str">
+      <c r="H137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>35リフレックス、レメロン（ミルタザピン）mg</v>
       </c>
       <c r="I137" s="11">
         <v>0.0</v>
       </c>
-      <c r="J137" s="12">
+      <c r="J137" s="10">
         <v>0.0</v>
       </c>
       <c r="K137" s="11">
@@ -7371,37 +7371,37 @@
       <c r="A138" s="7">
         <v>137.0</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="C138" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="9" t="str">
+      <c r="D138" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トリンテリックス（ボルチオキセチン）mg</v>
       </c>
-      <c r="H138" s="9" t="str">
+      <c r="H138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>36トリンテリックス（ボルチオキセチン）mg</v>
       </c>
       <c r="I138" s="11">
         <v>0.0</v>
       </c>
-      <c r="J138" s="12">
+      <c r="J138" s="10">
         <v>0.0</v>
       </c>
       <c r="K138" s="11">
         <v>0.0</v>
       </c>
-      <c r="L138" s="14" t="s">
+      <c r="L138" s="13" t="s">
         <v>88</v>
       </c>
       <c r="M138" s="11">
@@ -7412,31 +7412,31 @@
       <c r="A139" s="7">
         <v>138.0</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="9" t="str">
+      <c r="D139" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リーマス（炭酸リチウム）mg</v>
       </c>
-      <c r="H139" s="9" t="str">
+      <c r="H139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>40リーマス（炭酸リチウム）mg</v>
       </c>
       <c r="I139" s="11">
         <v>0.0</v>
       </c>
-      <c r="J139" s="12">
+      <c r="J139" s="10">
         <v>0.0</v>
       </c>
       <c r="K139" s="11">
@@ -7453,31 +7453,31 @@
       <c r="A140" s="7">
         <v>139.0</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="C140" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" s="9" t="str">
+      <c r="D140" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テグレトール（カルバマゼピン）mg</v>
       </c>
-      <c r="H140" s="9" t="str">
+      <c r="H140" s="8" t="str">
         <f t="shared" si="2"/>
         <v>41テグレトール（カルバマゼピン）mg</v>
       </c>
       <c r="I140" s="11">
         <v>0.0</v>
       </c>
-      <c r="J140" s="12">
+      <c r="J140" s="10">
         <v>0.0</v>
       </c>
       <c r="K140" s="11">
@@ -7494,31 +7494,31 @@
       <c r="A141" s="7">
         <v>140.0</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D141" s="16" t="s">
+      <c r="B141" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" s="9" t="str">
+      <c r="D141" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デパケン、デパケンR、セレニカ、セレニカR、バレリン（バルプロ酸）mg</v>
       </c>
-      <c r="H141" s="9" t="str">
+      <c r="H141" s="8" t="str">
         <f t="shared" si="2"/>
         <v>41デパケン、デパケンR、セレニカ、セレニカR、バレリン（バルプロ酸）mg</v>
       </c>
       <c r="I141" s="11">
         <v>0.0</v>
       </c>
-      <c r="J141" s="12">
+      <c r="J141" s="10">
         <v>0.0</v>
       </c>
       <c r="K141" s="11">
@@ -7535,31 +7535,31 @@
       <c r="A142" s="7">
         <v>141.0</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D142" s="9" t="s">
+      <c r="B142" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="9" t="str">
+      <c r="D142" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ラミクタール（ラモトリギン）mg</v>
       </c>
-      <c r="H142" s="9" t="str">
+      <c r="H142" s="8" t="str">
         <f t="shared" si="2"/>
         <v>41ラミクタール（ラモトリギン）mg</v>
       </c>
       <c r="I142" s="11">
         <v>0.0</v>
       </c>
-      <c r="J142" s="12">
+      <c r="J142" s="10">
         <v>0.0</v>
       </c>
       <c r="K142" s="11">
@@ -7576,31 +7576,31 @@
       <c r="A143" s="7">
         <v>142.0</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="C143" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="9" t="str">
+      <c r="D143" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アレビアチン（フェニトイン）mg</v>
       </c>
-      <c r="H143" s="9" t="str">
+      <c r="H143" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42アレビアチン（フェニトイン）mg</v>
       </c>
       <c r="I143" s="11">
         <v>0.0</v>
       </c>
-      <c r="J143" s="12">
+      <c r="J143" s="10">
         <v>0.0</v>
       </c>
       <c r="K143" s="11">
@@ -7617,31 +7617,31 @@
       <c r="A144" s="7">
         <v>143.0</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D144" s="9" t="s">
+      <c r="B144" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" s="9" t="str">
+      <c r="D144" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="8" t="str">
         <f t="shared" si="1"/>
         <v>イーケプラ（レベチラセタム）mg</v>
       </c>
-      <c r="H144" s="9" t="str">
+      <c r="H144" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42イーケプラ（レベチラセタム）mg</v>
       </c>
       <c r="I144" s="11">
         <v>0.0</v>
       </c>
-      <c r="J144" s="12">
+      <c r="J144" s="10">
         <v>0.0</v>
       </c>
       <c r="K144" s="11">
@@ -7658,31 +7658,31 @@
       <c r="A145" s="7">
         <v>144.0</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D145" s="9" t="s">
+      <c r="B145" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="9" t="str">
+      <c r="D145" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エクセグラン、トレリーフ（ゾニサミド）mg</v>
       </c>
-      <c r="H145" s="9" t="str">
+      <c r="H145" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42エクセグラン、トレリーフ（ゾニサミド）mg</v>
       </c>
       <c r="I145" s="11">
         <v>0.0</v>
       </c>
-      <c r="J145" s="12">
+      <c r="J145" s="10">
         <v>0.0</v>
       </c>
       <c r="K145" s="11">
@@ -7699,31 +7699,31 @@
       <c r="A146" s="7">
         <v>145.0</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D146" s="9" t="s">
+      <c r="B146" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" s="9" t="str">
+      <c r="D146" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ガバペン（ガバペンチン）mg</v>
       </c>
-      <c r="H146" s="9" t="str">
+      <c r="H146" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42ガバペン（ガバペンチン）mg</v>
       </c>
       <c r="I146" s="11">
         <v>0.0</v>
       </c>
-      <c r="J146" s="12">
+      <c r="J146" s="10">
         <v>0.0</v>
       </c>
       <c r="K146" s="11">
@@ -7740,31 +7740,31 @@
       <c r="A147" s="7">
         <v>146.0</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D147" s="9" t="s">
+      <c r="B147" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" s="9" t="str">
+      <c r="D147" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トピナ（トピラマート）mg</v>
       </c>
-      <c r="H147" s="9" t="str">
+      <c r="H147" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42トピナ（トピラマート）mg</v>
       </c>
       <c r="I147" s="11">
         <v>0.0</v>
       </c>
-      <c r="J147" s="12">
+      <c r="J147" s="10">
         <v>0.0</v>
       </c>
       <c r="K147" s="11">
@@ -7781,31 +7781,31 @@
       <c r="A148" s="7">
         <v>147.0</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D148" s="9" t="s">
+      <c r="B148" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" s="9" t="str">
+      <c r="D148" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ビムパット（ラコサミド）mg</v>
       </c>
-      <c r="H148" s="9" t="str">
+      <c r="H148" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42ビムパット（ラコサミド）mg</v>
       </c>
       <c r="I148" s="11">
         <v>0.0</v>
       </c>
-      <c r="J148" s="12">
+      <c r="J148" s="10">
         <v>0.0</v>
       </c>
       <c r="K148" s="11">
@@ -7822,31 +7822,31 @@
       <c r="A149" s="7">
         <v>148.0</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D149" s="9" t="s">
+      <c r="B149" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" s="9" t="str">
+      <c r="D149" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="8" t="str">
         <f t="shared" si="1"/>
         <v>フィコンパ（ペランパネル）mg</v>
       </c>
-      <c r="H149" s="9" t="str">
+      <c r="H149" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42フィコンパ（ペランパネル）mg</v>
       </c>
       <c r="I149" s="11">
         <v>0.0</v>
       </c>
-      <c r="J149" s="12">
+      <c r="J149" s="10">
         <v>0.0</v>
       </c>
       <c r="K149" s="11">
@@ -7863,29 +7863,29 @@
       <c r="A150" s="7">
         <v>149.0</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="9" t="str">
+      <c r="B150" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="8" t="str">
         <f t="shared" si="1"/>
         <v>プリミドンmg</v>
       </c>
-      <c r="H150" s="9" t="str">
+      <c r="H150" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42プリミドンmg</v>
       </c>
       <c r="I150" s="11">
         <v>0.0</v>
       </c>
-      <c r="J150" s="12">
+      <c r="J150" s="10">
         <v>0.0</v>
       </c>
       <c r="K150" s="11">
@@ -7902,31 +7902,31 @@
       <c r="A151" s="7">
         <v>150.0</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D151" s="9" t="s">
+      <c r="B151" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="9" t="str">
+      <c r="D151" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="8" t="str">
         <f t="shared" si="1"/>
         <v>マイスタン（クロバザム）mg</v>
       </c>
-      <c r="H151" s="9" t="str">
+      <c r="H151" s="8" t="str">
         <f t="shared" si="2"/>
         <v>42マイスタン（クロバザム）mg</v>
       </c>
       <c r="I151" s="11">
         <v>0.0</v>
       </c>
-      <c r="J151" s="12">
+      <c r="J151" s="10">
         <v>0.0</v>
       </c>
       <c r="K151" s="11">
@@ -7943,31 +7943,31 @@
       <c r="A152" s="7">
         <v>151.0</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="C152" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="9" t="str">
+      <c r="D152" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アーテン（トリヘキシフェニジル）mg</v>
       </c>
-      <c r="H152" s="9" t="str">
+      <c r="H152" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60アーテン（トリヘキシフェニジル）mg</v>
       </c>
       <c r="I152" s="11">
         <v>0.0</v>
       </c>
-      <c r="J152" s="12">
+      <c r="J152" s="10">
         <v>0.0</v>
       </c>
       <c r="K152" s="11">
@@ -7984,31 +7984,31 @@
       <c r="A153" s="7">
         <v>152.0</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D153" s="9" t="s">
+      <c r="B153" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E153" s="9"/>
-      <c r="F153" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="9" t="str">
+      <c r="D153" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アキネトン（ビペリデン）mg</v>
       </c>
-      <c r="H153" s="9" t="str">
+      <c r="H153" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60アキネトン（ビペリデン）mg</v>
       </c>
       <c r="I153" s="11">
         <v>0.0</v>
       </c>
-      <c r="J153" s="12">
+      <c r="J153" s="10">
         <v>0.0</v>
       </c>
       <c r="K153" s="11">
@@ -8025,31 +8025,31 @@
       <c r="A154" s="7">
         <v>153.0</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D154" s="9" t="s">
+      <c r="B154" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="9" t="str">
+      <c r="D154" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コリンホール（メチキセン）mg</v>
       </c>
-      <c r="H154" s="9" t="str">
+      <c r="H154" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60コリンホール（メチキセン）mg</v>
       </c>
       <c r="I154" s="11">
         <v>0.0</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="10">
         <v>0.0</v>
       </c>
       <c r="K154" s="11">
@@ -8066,31 +8066,31 @@
       <c r="A155" s="7">
         <v>154.0</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D155" s="9" t="s">
+      <c r="B155" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E155" s="9"/>
-      <c r="F155" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="9" t="str">
+      <c r="D155" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="8" t="str">
         <f t="shared" si="1"/>
         <v>トリモール（ピロヘプチン）mg</v>
       </c>
-      <c r="H155" s="9" t="str">
+      <c r="H155" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60トリモール（ピロヘプチン）mg</v>
       </c>
       <c r="I155" s="11">
         <v>0.0</v>
       </c>
-      <c r="J155" s="12">
+      <c r="J155" s="10">
         <v>0.0</v>
       </c>
       <c r="K155" s="11">
@@ -8107,31 +8107,31 @@
       <c r="A156" s="7">
         <v>155.0</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D156" s="9" t="s">
+      <c r="B156" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="9" t="str">
+      <c r="D156" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E156" s="8"/>
+      <c r="F156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パーキン（プロフェナミン）mg</v>
       </c>
-      <c r="H156" s="9" t="str">
+      <c r="H156" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60パーキン（プロフェナミン）mg</v>
       </c>
       <c r="I156" s="11">
         <v>0.0</v>
       </c>
-      <c r="J156" s="12">
+      <c r="J156" s="10">
         <v>0.0</v>
       </c>
       <c r="K156" s="11">
@@ -8148,31 +8148,31 @@
       <c r="A157" s="7">
         <v>156.0</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D157" s="9" t="s">
+      <c r="B157" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E157" s="9"/>
-      <c r="F157" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="9" t="str">
+      <c r="D157" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ピレチア、ヒベルナ（プロメタジン）mg</v>
       </c>
-      <c r="H157" s="9" t="str">
+      <c r="H157" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60ピレチア、ヒベルナ（プロメタジン）mg</v>
       </c>
       <c r="I157" s="11">
         <v>0.0</v>
       </c>
-      <c r="J157" s="12">
+      <c r="J157" s="10">
         <v>0.0</v>
       </c>
       <c r="K157" s="11">
@@ -8189,29 +8189,29 @@
       <c r="A158" s="7">
         <v>157.0</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D158" s="13"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="9" t="str">
+      <c r="B158" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベンズトロピンmg</v>
       </c>
-      <c r="H158" s="9" t="str">
+      <c r="H158" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60ベンズトロピンmg</v>
       </c>
       <c r="I158" s="11">
         <v>0.0</v>
       </c>
-      <c r="J158" s="12">
+      <c r="J158" s="10">
         <v>0.0</v>
       </c>
       <c r="K158" s="11">
@@ -8228,31 +8228,31 @@
       <c r="A159" s="7">
         <v>158.0</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D159" s="9" t="s">
+      <c r="B159" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" s="9" t="str">
+      <c r="D159" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ペントナ（マザチコール）mg</v>
       </c>
-      <c r="H159" s="9" t="str">
+      <c r="H159" s="8" t="str">
         <f t="shared" si="2"/>
         <v>60ペントナ（マザチコール）mg</v>
       </c>
       <c r="I159" s="11">
         <v>0.0</v>
       </c>
-      <c r="J159" s="12">
+      <c r="J159" s="10">
         <v>0.0</v>
       </c>
       <c r="K159" s="11">
@@ -8269,31 +8269,31 @@
       <c r="A160" s="7">
         <v>159.0</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="9" t="str">
+      <c r="D160" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アタラックスP（ヒドロキシジン）mg</v>
       </c>
-      <c r="H160" s="9" t="str">
+      <c r="H160" s="8" t="str">
         <f t="shared" si="2"/>
         <v>61アタラックスP（ヒドロキシジン）mg</v>
       </c>
       <c r="I160" s="11">
         <v>0.0</v>
       </c>
-      <c r="J160" s="12">
+      <c r="J160" s="10">
         <v>0.0</v>
       </c>
       <c r="K160" s="11">
@@ -8310,31 +8310,31 @@
       <c r="A161" s="7">
         <v>160.0</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D161" s="9" t="s">
+      <c r="B161" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E161" s="9"/>
-      <c r="F161" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="9" t="str">
+      <c r="D161" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レスタミン（ジフェンヒドラミン）mg</v>
       </c>
-      <c r="H161" s="9" t="str">
+      <c r="H161" s="8" t="str">
         <f t="shared" si="2"/>
         <v>61レスタミン（ジフェンヒドラミン）mg</v>
       </c>
       <c r="I161" s="11">
         <v>0.0</v>
       </c>
-      <c r="J161" s="12">
+      <c r="J161" s="10">
         <v>0.0</v>
       </c>
       <c r="K161" s="11">
@@ -8351,31 +8351,31 @@
       <c r="A162" s="7">
         <v>161.0</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C162" s="9" t="s">
+      <c r="B162" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E162" s="9"/>
-      <c r="F162" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="9" t="str">
+      <c r="D162" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E162" s="8"/>
+      <c r="F162" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="8" t="str">
         <f t="shared" si="1"/>
         <v>エフピー（セレギリン）mg</v>
       </c>
-      <c r="H162" s="9" t="str">
+      <c r="H162" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62エフピー（セレギリン）mg</v>
       </c>
       <c r="I162" s="11">
         <v>0.0</v>
       </c>
-      <c r="J162" s="12">
+      <c r="J162" s="10">
         <v>0.0</v>
       </c>
       <c r="K162" s="11">
@@ -8392,31 +8392,31 @@
       <c r="A163" s="7">
         <v>162.0</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D163" s="9" t="s">
+      <c r="B163" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E163" s="9"/>
-      <c r="F163" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="9" t="str">
+      <c r="D163" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="8" t="str">
         <f t="shared" si="1"/>
         <v>カバサール（カベルゴリン）mg</v>
       </c>
-      <c r="H163" s="9" t="str">
+      <c r="H163" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62カバサール（カベルゴリン）mg</v>
       </c>
       <c r="I163" s="11">
         <v>0.0</v>
       </c>
-      <c r="J163" s="12">
+      <c r="J163" s="10">
         <v>0.0</v>
       </c>
       <c r="K163" s="11">
@@ -8433,31 +8433,31 @@
       <c r="A164" s="7">
         <v>163.0</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D164" s="9" t="s">
+      <c r="B164" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E164" s="9"/>
-      <c r="F164" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" s="9" t="str">
+      <c r="D164" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コムタン（エンタカポン）mg</v>
       </c>
-      <c r="H164" s="9" t="str">
+      <c r="H164" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62コムタン（エンタカポン）mg</v>
       </c>
       <c r="I164" s="11">
         <v>0.0</v>
       </c>
-      <c r="J164" s="12">
+      <c r="J164" s="10">
         <v>0.0</v>
       </c>
       <c r="K164" s="11">
@@ -8474,31 +8474,31 @@
       <c r="A165" s="7">
         <v>164.0</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D165" s="9" t="s">
+      <c r="B165" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="9" t="str">
+      <c r="D165" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E165" s="8"/>
+      <c r="F165" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="8" t="str">
         <f t="shared" si="1"/>
         <v>シンメトレル（アマンタジン）mg</v>
       </c>
-      <c r="H165" s="9" t="str">
+      <c r="H165" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62シンメトレル（アマンタジン）mg</v>
       </c>
       <c r="I165" s="11">
         <v>0.0</v>
       </c>
-      <c r="J165" s="12">
+      <c r="J165" s="10">
         <v>0.0</v>
       </c>
       <c r="K165" s="11">
@@ -8515,33 +8515,33 @@
       <c r="A166" s="7">
         <v>165.0</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D166" s="9" t="s">
+      <c r="B166" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="D166" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E166" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F166" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G166" s="9" t="str">
+      <c r="F166" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G166" s="8" t="str">
         <f t="shared" si="1"/>
         <v>スタレボ配合錠L100錠</v>
       </c>
-      <c r="H166" s="9" t="str">
+      <c r="H166" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62スタレボ配合錠L100錠</v>
       </c>
       <c r="I166" s="11">
         <v>0.0</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J166" s="10">
         <v>0.0</v>
       </c>
       <c r="K166" s="11">
@@ -8558,33 +8558,33 @@
       <c r="A167" s="7">
         <v>166.0</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D167" s="9" t="s">
+      <c r="B167" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="D167" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F167" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G167" s="9" t="str">
+      <c r="F167" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G167" s="8" t="str">
         <f t="shared" si="1"/>
         <v>スタレボ配合錠L50錠</v>
       </c>
-      <c r="H167" s="9" t="str">
+      <c r="H167" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62スタレボ配合錠L50錠</v>
       </c>
       <c r="I167" s="11">
         <v>0.0</v>
       </c>
-      <c r="J167" s="12">
+      <c r="J167" s="10">
         <v>0.0</v>
       </c>
       <c r="K167" s="11">
@@ -8601,33 +8601,33 @@
       <c r="A168" s="7">
         <v>167.0</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D168" s="9" t="s">
+      <c r="B168" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="D168" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E168" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F168" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="G168" s="9" t="str">
+      <c r="F168" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G168" s="8" t="str">
         <f t="shared" si="1"/>
         <v>デュオドーパ腸用剤カセット</v>
       </c>
-      <c r="H168" s="9" t="str">
+      <c r="H168" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62デュオドーパ腸用剤カセット</v>
       </c>
       <c r="I168" s="11">
         <v>0.0</v>
       </c>
-      <c r="J168" s="12">
+      <c r="J168" s="10">
         <v>0.0</v>
       </c>
       <c r="K168" s="11">
@@ -8644,31 +8644,31 @@
       <c r="A169" s="7">
         <v>168.0</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D169" s="9" t="s">
+      <c r="B169" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" s="9" t="str">
+      <c r="D169" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E169" s="8"/>
+      <c r="F169" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドパストン、ドパゾール、ドパール（レボドパ）mg</v>
       </c>
-      <c r="H169" s="9" t="str">
+      <c r="H169" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ドパストン、ドパゾール、ドパール（レボドパ）mg</v>
       </c>
       <c r="I169" s="11">
         <v>0.0</v>
       </c>
-      <c r="J169" s="12">
+      <c r="J169" s="10">
         <v>0.0</v>
       </c>
       <c r="K169" s="11">
@@ -8685,31 +8685,31 @@
       <c r="A170" s="7">
         <v>169.0</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D170" s="9" t="s">
+      <c r="B170" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" s="9" t="str">
+      <c r="D170" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E170" s="8"/>
+      <c r="F170" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドプス（ドロキシドパ）mg</v>
       </c>
-      <c r="H170" s="9" t="str">
+      <c r="H170" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ドプス（ドロキシドパ）mg</v>
       </c>
       <c r="I170" s="11">
         <v>0.0</v>
       </c>
-      <c r="J170" s="12">
+      <c r="J170" s="10">
         <v>0.0</v>
       </c>
       <c r="K170" s="11">
@@ -8726,31 +8726,31 @@
       <c r="A171" s="7">
         <v>170.0</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D171" s="9" t="s">
+      <c r="B171" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E171" s="9"/>
-      <c r="F171" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" s="9" t="str">
+      <c r="D171" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E171" s="8"/>
+      <c r="F171" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ドミン（タリペキソール）mg</v>
       </c>
-      <c r="H171" s="9" t="str">
+      <c r="H171" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ドミン（タリペキソール）mg</v>
       </c>
       <c r="I171" s="11">
         <v>0.0</v>
       </c>
-      <c r="J171" s="12">
+      <c r="J171" s="10">
         <v>0.0</v>
       </c>
       <c r="K171" s="11">
@@ -8767,31 +8767,31 @@
       <c r="A172" s="7">
         <v>171.0</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D172" s="9" t="s">
+      <c r="B172" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C172" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E172" s="9"/>
-      <c r="F172" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" s="9" t="str">
+      <c r="D172" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E172" s="8"/>
+      <c r="F172" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ニュープロパッチ（ロチゴチン）mg</v>
       </c>
-      <c r="H172" s="9" t="str">
+      <c r="H172" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ニュープロパッチ（ロチゴチン）mg</v>
       </c>
       <c r="I172" s="11">
         <v>0.0</v>
       </c>
-      <c r="J172" s="12">
+      <c r="J172" s="10">
         <v>0.0</v>
       </c>
       <c r="K172" s="11">
@@ -8808,31 +8808,31 @@
       <c r="A173" s="7">
         <v>172.0</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D173" s="9" t="s">
+      <c r="B173" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E173" s="9"/>
-      <c r="F173" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" s="9" t="str">
+      <c r="D173" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E173" s="8"/>
+      <c r="F173" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ノウリアスト（イストラデフィリン）mg</v>
       </c>
-      <c r="H173" s="9" t="str">
+      <c r="H173" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ノウリアスト（イストラデフィリン）mg</v>
       </c>
       <c r="I173" s="11">
         <v>0.0</v>
       </c>
-      <c r="J173" s="12">
+      <c r="J173" s="10">
         <v>0.0</v>
       </c>
       <c r="K173" s="11">
@@ -8849,31 +8849,31 @@
       <c r="A174" s="7">
         <v>173.0</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D174" s="9" t="s">
+      <c r="B174" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E174" s="9"/>
-      <c r="F174" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" s="9" t="str">
+      <c r="D174" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E174" s="8"/>
+      <c r="F174" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パーロデル（ブロモクリプチン）mg</v>
       </c>
-      <c r="H174" s="9" t="str">
+      <c r="H174" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62パーロデル（ブロモクリプチン）mg</v>
       </c>
       <c r="I174" s="11">
         <v>0.0</v>
       </c>
-      <c r="J174" s="12">
+      <c r="J174" s="10">
         <v>0.0</v>
       </c>
       <c r="K174" s="11">
@@ -8890,31 +8890,31 @@
       <c r="A175" s="7">
         <v>174.0</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D175" s="9" t="s">
+      <c r="B175" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E175" s="9"/>
-      <c r="F175" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" s="9" t="str">
+      <c r="D175" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ビシフロール、ミラペックス（プラミペキソール）mg</v>
       </c>
-      <c r="H175" s="9" t="str">
+      <c r="H175" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ビシフロール、ミラペックス（プラミペキソール）mg</v>
       </c>
       <c r="I175" s="11">
         <v>0.0</v>
       </c>
-      <c r="J175" s="12">
+      <c r="J175" s="10">
         <v>0.0</v>
       </c>
       <c r="K175" s="11">
@@ -8931,31 +8931,31 @@
       <c r="A176" s="7">
         <v>175.0</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D176" s="9" t="s">
+      <c r="B176" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="10" t="s">
+      <c r="D176" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="G176" s="9" t="str">
+      <c r="E176" s="8"/>
+      <c r="F176" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G176" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ペルマックス（ペルゴリド）μg</v>
       </c>
-      <c r="H176" s="9" t="str">
+      <c r="H176" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62ペルマックス（ペルゴリド）μg</v>
       </c>
       <c r="I176" s="11">
         <v>0.0</v>
       </c>
-      <c r="J176" s="12">
+      <c r="J176" s="10">
         <v>0.0</v>
       </c>
       <c r="K176" s="11">
@@ -8972,33 +8972,33 @@
       <c r="A177" s="7">
         <v>176.0</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D177" s="9" t="s">
+      <c r="B177" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="D177" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E177" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F177" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G177" s="9" t="str">
+      <c r="F177" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G177" s="8" t="str">
         <f t="shared" si="1"/>
         <v>マドパー配合錠錠</v>
       </c>
-      <c r="H177" s="9" t="str">
+      <c r="H177" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62マドパー配合錠錠</v>
       </c>
       <c r="I177" s="11">
         <v>0.0</v>
       </c>
-      <c r="J177" s="12">
+      <c r="J177" s="10">
         <v>0.0</v>
       </c>
       <c r="K177" s="11">
@@ -9015,33 +9015,33 @@
       <c r="A178" s="7">
         <v>177.0</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="D178" s="10" t="s">
+      <c r="B178" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="D178" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F178" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G178" s="9" t="str">
+      <c r="F178" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G178" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メネシット配合錠100、カルコーパ配合錠100、ネオドパストン配合錠L100、カルコーパ配合錠L100錠</v>
       </c>
-      <c r="H178" s="9" t="str">
+      <c r="H178" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62メネシット配合錠100、カルコーパ配合錠100、ネオドパストン配合錠L100、カルコーパ配合錠L100錠</v>
       </c>
       <c r="I178" s="11">
         <v>0.0</v>
       </c>
-      <c r="J178" s="12">
+      <c r="J178" s="10">
         <v>0.0</v>
       </c>
       <c r="K178" s="11">
@@ -9058,33 +9058,33 @@
       <c r="A179" s="7">
         <v>178.0</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D179" s="10" t="s">
+      <c r="B179" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="D179" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F179" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G179" s="9" t="str">
+      <c r="F179" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G179" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メネシット配合錠250、カルコーパ配合錠250、ネオドパストン配合錠L250、カルコーパ配合錠L250錠</v>
       </c>
-      <c r="H179" s="9" t="str">
+      <c r="H179" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62メネシット配合錠250、カルコーパ配合錠250、ネオドパストン配合錠L250、カルコーパ配合錠L250錠</v>
       </c>
       <c r="I179" s="11">
         <v>0.0</v>
       </c>
-      <c r="J179" s="12">
+      <c r="J179" s="10">
         <v>0.0</v>
       </c>
       <c r="K179" s="11">
@@ -9101,31 +9101,31 @@
       <c r="A180" s="7">
         <v>179.0</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D180" s="9" t="s">
+      <c r="B180" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E180" s="9"/>
-      <c r="F180" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" s="9" t="str">
+      <c r="D180" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レキップ（ロピニロール）mg</v>
       </c>
-      <c r="H180" s="9" t="str">
+      <c r="H180" s="8" t="str">
         <f t="shared" si="2"/>
         <v>62レキップ（ロピニロール）mg</v>
       </c>
       <c r="I180" s="11">
         <v>0.0</v>
       </c>
-      <c r="J180" s="12">
+      <c r="J180" s="10">
         <v>0.0</v>
       </c>
       <c r="K180" s="11">
@@ -9142,31 +9142,31 @@
       <c r="A181" s="7">
         <v>180.0</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C181" s="9" t="s">
+      <c r="B181" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="C181" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E181" s="9"/>
-      <c r="F181" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" s="9" t="str">
+      <c r="D181" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E181" s="8"/>
+      <c r="F181" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レグナイト（ガバペンチンエナカルビル）mg</v>
       </c>
-      <c r="H181" s="9" t="str">
+      <c r="H181" s="8" t="str">
         <f t="shared" si="2"/>
         <v>63レグナイト（ガバペンチンエナカルビル）mg</v>
       </c>
       <c r="I181" s="11">
         <v>0.0</v>
       </c>
-      <c r="J181" s="12">
+      <c r="J181" s="10">
         <v>0.0</v>
       </c>
       <c r="K181" s="11">
@@ -9183,31 +9183,31 @@
       <c r="A182" s="7">
         <v>181.0</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C182" s="9" t="s">
+      <c r="B182" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="C182" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E182" s="9"/>
-      <c r="F182" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" s="9" t="str">
+      <c r="D182" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="8" t="str">
         <f t="shared" si="1"/>
         <v>インチュニブ（グアンファシン）mg</v>
       </c>
-      <c r="H182" s="9" t="str">
+      <c r="H182" s="8" t="str">
         <f t="shared" si="2"/>
         <v>70インチュニブ（グアンファシン）mg</v>
       </c>
       <c r="I182" s="11">
         <v>0.0</v>
       </c>
-      <c r="J182" s="12">
+      <c r="J182" s="10">
         <v>0.0</v>
       </c>
       <c r="K182" s="11">
@@ -9224,33 +9224,33 @@
       <c r="A183" s="7">
         <v>182.0</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D183" s="9" t="s">
+      <c r="B183" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="D183" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E183" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F183" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="9" t="str">
+      <c r="F183" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="8" t="str">
         <f t="shared" si="1"/>
         <v>コンサータmg</v>
       </c>
-      <c r="H183" s="9" t="str">
+      <c r="H183" s="8" t="str">
         <f t="shared" si="2"/>
         <v>70コンサータmg</v>
       </c>
       <c r="I183" s="11">
         <v>0.0</v>
       </c>
-      <c r="J183" s="12">
+      <c r="J183" s="10">
         <v>0.0</v>
       </c>
       <c r="K183" s="11">
@@ -9267,31 +9267,31 @@
       <c r="A184" s="7">
         <v>183.0</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D184" s="9" t="s">
+      <c r="B184" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E184" s="9"/>
-      <c r="F184" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" s="9" t="str">
+      <c r="D184" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ストラテラ（アトモキセチン）mg</v>
       </c>
-      <c r="H184" s="9" t="str">
+      <c r="H184" s="8" t="str">
         <f t="shared" si="2"/>
         <v>70ストラテラ（アトモキセチン）mg</v>
       </c>
       <c r="I184" s="11">
         <v>0.0</v>
       </c>
-      <c r="J184" s="12">
+      <c r="J184" s="10">
         <v>0.0</v>
       </c>
       <c r="K184" s="11">
@@ -9308,31 +9308,31 @@
       <c r="A185" s="7">
         <v>184.0</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D185" s="9" t="s">
+      <c r="B185" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E185" s="9"/>
-      <c r="F185" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" s="9" t="str">
+      <c r="D185" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ビバンセ（リスデキサンフェタミン）mg</v>
       </c>
-      <c r="H185" s="9" t="str">
+      <c r="H185" s="8" t="str">
         <f t="shared" si="2"/>
         <v>70ビバンセ（リスデキサンフェタミン）mg</v>
       </c>
       <c r="I185" s="11">
         <v>0.0</v>
       </c>
-      <c r="J185" s="12">
+      <c r="J185" s="10">
         <v>0.0</v>
       </c>
       <c r="K185" s="11">
@@ -9349,31 +9349,31 @@
       <c r="A186" s="7">
         <v>185.0</v>
       </c>
-      <c r="B186" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="C186" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E186" s="9"/>
-      <c r="F186" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" s="9" t="str">
+      <c r="D186" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E186" s="8"/>
+      <c r="F186" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ベタナミン（ペモリン）mg</v>
       </c>
-      <c r="H186" s="9" t="str">
+      <c r="H186" s="8" t="str">
         <f t="shared" si="2"/>
         <v>71ベタナミン（ペモリン）mg</v>
       </c>
       <c r="I186" s="11">
         <v>0.0</v>
       </c>
-      <c r="J186" s="12">
+      <c r="J186" s="10">
         <v>0.0</v>
       </c>
       <c r="K186" s="11">
@@ -9390,31 +9390,31 @@
       <c r="A187" s="7">
         <v>186.0</v>
       </c>
-      <c r="B187" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D187" s="9" t="s">
+      <c r="B187" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E187" s="9"/>
-      <c r="F187" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" s="9" t="str">
+      <c r="D187" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" s="8"/>
+      <c r="F187" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="8" t="str">
         <f t="shared" si="1"/>
         <v>モディオダール（モダフィニル）mg</v>
       </c>
-      <c r="H187" s="9" t="str">
+      <c r="H187" s="8" t="str">
         <f t="shared" si="2"/>
         <v>71モディオダール（モダフィニル）mg</v>
       </c>
       <c r="I187" s="11">
         <v>0.0</v>
       </c>
-      <c r="J187" s="12">
+      <c r="J187" s="10">
         <v>0.0</v>
       </c>
       <c r="K187" s="11">
@@ -9431,31 +9431,31 @@
       <c r="A188" s="7">
         <v>187.0</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D188" s="9" t="s">
+      <c r="B188" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E188" s="9"/>
-      <c r="F188" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" s="9" t="str">
+      <c r="D188" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E188" s="8"/>
+      <c r="F188" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リタリン（メチルフェニデート）mg</v>
       </c>
-      <c r="H188" s="9" t="str">
+      <c r="H188" s="8" t="str">
         <f t="shared" si="2"/>
         <v>71リタリン（メチルフェニデート）mg</v>
       </c>
       <c r="I188" s="11">
         <v>0.0</v>
       </c>
-      <c r="J188" s="12">
+      <c r="J188" s="10">
         <v>0.0</v>
       </c>
       <c r="K188" s="11">
@@ -9472,31 +9472,31 @@
       <c r="A189" s="7">
         <v>188.0</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C189" s="9" t="s">
+      <c r="B189" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="C189" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="E189" s="9"/>
-      <c r="F189" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" s="9" t="str">
+      <c r="D189" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E189" s="8"/>
+      <c r="F189" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="8" t="str">
         <f t="shared" si="1"/>
         <v>アリセプト（ドネペジル）mg</v>
       </c>
-      <c r="H189" s="9" t="str">
+      <c r="H189" s="8" t="str">
         <f t="shared" si="2"/>
         <v>80アリセプト（ドネペジル）mg</v>
       </c>
       <c r="I189" s="11">
         <v>0.0</v>
       </c>
-      <c r="J189" s="12">
+      <c r="J189" s="10">
         <v>0.0</v>
       </c>
       <c r="K189" s="11">
@@ -9513,31 +9513,31 @@
       <c r="A190" s="7">
         <v>189.0</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D190" s="9" t="s">
+      <c r="B190" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E190" s="9"/>
-      <c r="F190" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" s="9" t="str">
+      <c r="D190" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E190" s="8"/>
+      <c r="F190" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メマリー（メマンチン）mg</v>
       </c>
-      <c r="H190" s="9" t="str">
+      <c r="H190" s="8" t="str">
         <f t="shared" si="2"/>
         <v>80メマリー（メマンチン）mg</v>
       </c>
       <c r="I190" s="11">
         <v>0.0</v>
       </c>
-      <c r="J190" s="12">
+      <c r="J190" s="10">
         <v>0.0</v>
       </c>
       <c r="K190" s="11">
@@ -9554,31 +9554,31 @@
       <c r="A191" s="7">
         <v>190.0</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D191" s="9" t="s">
+      <c r="B191" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="E191" s="9"/>
-      <c r="F191" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" s="9" t="str">
+      <c r="D191" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="8" t="str">
         <f t="shared" si="1"/>
         <v>リバスタッチ、イクセロンパッチ（リバスチグミン）mg</v>
       </c>
-      <c r="H191" s="9" t="str">
+      <c r="H191" s="8" t="str">
         <f t="shared" si="2"/>
         <v>80リバスタッチ、イクセロンパッチ（リバスチグミン）mg</v>
       </c>
       <c r="I191" s="11">
         <v>0.0</v>
       </c>
-      <c r="J191" s="12">
+      <c r="J191" s="10">
         <v>0.0</v>
       </c>
       <c r="K191" s="11">
@@ -9595,31 +9595,31 @@
       <c r="A192" s="7">
         <v>191.0</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D192" s="9" t="s">
+      <c r="B192" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E192" s="9"/>
-      <c r="F192" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" s="9" t="str">
+      <c r="D192" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レミニール（ガランタミン）mg</v>
       </c>
-      <c r="H192" s="9" t="str">
+      <c r="H192" s="8" t="str">
         <f t="shared" si="2"/>
         <v>80レミニール（ガランタミン）mg</v>
       </c>
       <c r="I192" s="11">
         <v>0.0</v>
       </c>
-      <c r="J192" s="12">
+      <c r="J192" s="10">
         <v>0.0</v>
       </c>
       <c r="K192" s="11">
@@ -9636,31 +9636,31 @@
       <c r="A193" s="7">
         <v>192.0</v>
       </c>
-      <c r="B193" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C193" s="9" t="s">
+      <c r="B193" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="C193" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="E193" s="9"/>
-      <c r="F193" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" s="9" t="str">
+      <c r="D193" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E193" s="8"/>
+      <c r="F193" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="8" t="str">
         <f t="shared" si="1"/>
         <v>シアナマイド（シアナミド）mg</v>
       </c>
-      <c r="H193" s="9" t="str">
+      <c r="H193" s="8" t="str">
         <f t="shared" si="2"/>
         <v>85シアナマイド（シアナミド）mg</v>
       </c>
       <c r="I193" s="11">
         <v>0.0</v>
       </c>
-      <c r="J193" s="12">
+      <c r="J193" s="10">
         <v>0.0</v>
       </c>
       <c r="K193" s="11">
@@ -9677,31 +9677,31 @@
       <c r="A194" s="7">
         <v>193.0</v>
       </c>
-      <c r="B194" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D194" s="9" t="s">
+      <c r="B194" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C194" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="E194" s="9"/>
-      <c r="F194" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" s="9" t="str">
+      <c r="D194" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E194" s="8"/>
+      <c r="F194" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ノックビン（ジスルフィラム）mg</v>
       </c>
-      <c r="H194" s="9" t="str">
+      <c r="H194" s="8" t="str">
         <f t="shared" si="2"/>
         <v>85ノックビン（ジスルフィラム）mg</v>
       </c>
       <c r="I194" s="11">
         <v>0.0</v>
       </c>
-      <c r="J194" s="12">
+      <c r="J194" s="10">
         <v>0.0</v>
       </c>
       <c r="K194" s="11">
@@ -9718,31 +9718,31 @@
       <c r="A195" s="7">
         <v>194.0</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C195" s="9" t="s">
+      <c r="B195" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="C195" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E195" s="9"/>
-      <c r="F195" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" s="9" t="str">
+      <c r="D195" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E195" s="8"/>
+      <c r="F195" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="8" t="str">
         <f t="shared" si="1"/>
         <v>セリンクロ（ナルメフェン）mg</v>
       </c>
-      <c r="H195" s="9" t="str">
+      <c r="H195" s="8" t="str">
         <f t="shared" si="2"/>
         <v>86セリンクロ（ナルメフェン）mg</v>
       </c>
       <c r="I195" s="11">
         <v>0.0</v>
       </c>
-      <c r="J195" s="12">
+      <c r="J195" s="10">
         <v>0.0</v>
       </c>
       <c r="K195" s="11">
@@ -9759,31 +9759,31 @@
       <c r="A196" s="7">
         <v>195.0</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D196" s="9" t="s">
+      <c r="B196" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="E196" s="9"/>
-      <c r="F196" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" s="9" t="str">
+      <c r="D196" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E196" s="8"/>
+      <c r="F196" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="8" t="str">
         <f t="shared" si="1"/>
         <v>レグテクト（アカンプロサート）mg</v>
       </c>
-      <c r="H196" s="9" t="str">
+      <c r="H196" s="8" t="str">
         <f t="shared" si="2"/>
         <v>86レグテクト（アカンプロサート）mg</v>
       </c>
       <c r="I196" s="11">
         <v>0.0</v>
       </c>
-      <c r="J196" s="12">
+      <c r="J196" s="10">
         <v>0.0</v>
       </c>
       <c r="K196" s="11">
@@ -9800,31 +9800,31 @@
       <c r="A197" s="7">
         <v>196.0</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C197" s="9" t="s">
+      <c r="B197" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="C197" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="E197" s="9"/>
-      <c r="F197" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" s="9" t="str">
+      <c r="D197" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E197" s="8"/>
+      <c r="F197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="8" t="str">
         <f t="shared" si="1"/>
         <v>ガスモチン（モサプリド）mg</v>
       </c>
-      <c r="H197" s="9" t="str">
+      <c r="H197" s="8" t="str">
         <f t="shared" si="2"/>
         <v>90ガスモチン（モサプリド）mg</v>
       </c>
       <c r="I197" s="11">
         <v>0.0</v>
       </c>
-      <c r="J197" s="12">
+      <c r="J197" s="10">
         <v>0.0</v>
       </c>
       <c r="K197" s="11">
@@ -9841,31 +9841,31 @@
       <c r="A198" s="7">
         <v>197.0</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D198" s="9" t="s">
+      <c r="B198" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E198" s="9"/>
-      <c r="F198" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" s="9" t="str">
+      <c r="D198" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E198" s="8"/>
+      <c r="F198" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="8" t="str">
         <f t="shared" si="1"/>
         <v>パリエット（ラベプラゾール）mg</v>
       </c>
-      <c r="H198" s="9" t="str">
+      <c r="H198" s="8" t="str">
         <f t="shared" si="2"/>
         <v>90パリエット（ラベプラゾール）mg</v>
       </c>
       <c r="I198" s="11">
         <v>0.0</v>
       </c>
-      <c r="J198" s="12">
+      <c r="J198" s="10">
         <v>0.0</v>
       </c>
       <c r="K198" s="11">
@@ -9882,31 +9882,31 @@
       <c r="A199" s="7">
         <v>198.0</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D199" s="9" t="s">
+      <c r="B199" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E199" s="9"/>
-      <c r="F199" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" s="9" t="str">
+      <c r="D199" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E199" s="8"/>
+      <c r="F199" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" s="8" t="str">
         <f t="shared" si="1"/>
         <v>プルゼニド（センノシド）mg</v>
       </c>
-      <c r="H199" s="9" t="str">
+      <c r="H199" s="8" t="str">
         <f t="shared" si="2"/>
         <v>90プルゼニド（センノシド）mg</v>
       </c>
       <c r="I199" s="11">
         <v>0.0</v>
       </c>
-      <c r="J199" s="12">
+      <c r="J199" s="10">
         <v>0.0</v>
       </c>
       <c r="K199" s="11">
@@ -9923,31 +9923,31 @@
       <c r="A200" s="7">
         <v>199.0</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D200" s="9" t="s">
+      <c r="B200" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E200" s="9"/>
-      <c r="F200" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" s="9" t="str">
+      <c r="D200" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" s="8" t="str">
         <f t="shared" si="1"/>
         <v>マグミット、マグラックス、重カマ（酸化マグネシウム）mg</v>
       </c>
-      <c r="H200" s="9" t="str">
+      <c r="H200" s="8" t="str">
         <f t="shared" si="2"/>
         <v>90マグミット、マグラックス、重カマ（酸化マグネシウム）mg</v>
       </c>
       <c r="I200" s="11">
         <v>0.0</v>
       </c>
-      <c r="J200" s="12">
+      <c r="J200" s="10">
         <v>0.0</v>
       </c>
       <c r="K200" s="11">
@@ -9964,31 +9964,31 @@
       <c r="A201" s="7">
         <v>200.0</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D201" s="9" t="s">
+      <c r="B201" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="E201" s="9"/>
-      <c r="F201" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" s="9" t="str">
+      <c r="D201" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E201" s="8"/>
+      <c r="F201" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" s="8" t="str">
         <f t="shared" si="1"/>
         <v>メトリジン（ミドドリン）mg</v>
       </c>
-      <c r="H201" s="9" t="str">
+      <c r="H201" s="8" t="str">
         <f t="shared" si="2"/>
         <v>90メトリジン（ミドドリン）mg</v>
       </c>
       <c r="I201" s="11">
         <v>0.0</v>
       </c>
-      <c r="J201" s="12">
+      <c r="J201" s="10">
         <v>0.0</v>
       </c>
       <c r="K201" s="11">
